--- a/10-16-2023.xlsx
+++ b/10-16-2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8169" uniqueCount="2707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8241" uniqueCount="2731">
   <si>
     <t>Code</t>
   </si>
@@ -3553,7 +3553,7 @@
     <t>السلام ٢شارع جمال عبد الناصر</t>
   </si>
   <si>
-    <t>K2-074</t>
+    <t>K2-0120</t>
   </si>
   <si>
     <t>اسامه طاهر يوسف</t>
@@ -6331,18 +6331,6 @@
     <t>P2-099</t>
   </si>
   <si>
-    <t>K2-0104</t>
-  </si>
-  <si>
-    <t>تالة محمد حجاج</t>
-  </si>
-  <si>
-    <t>01119968965</t>
-  </si>
-  <si>
-    <t>01010351880</t>
-  </si>
-  <si>
     <t>P6-092</t>
   </si>
   <si>
@@ -8132,6 +8120,90 @@
   </si>
   <si>
     <t>الزراير</t>
+  </si>
+  <si>
+    <t>P4-0105</t>
+  </si>
+  <si>
+    <t>محمود صالح محمد</t>
+  </si>
+  <si>
+    <t>01276790299</t>
+  </si>
+  <si>
+    <t>P7-084</t>
+  </si>
+  <si>
+    <t>P4-0106</t>
+  </si>
+  <si>
+    <t>مينا كامل ابراهيم</t>
+  </si>
+  <si>
+    <t>01222715336</t>
+  </si>
+  <si>
+    <t>01288001980</t>
+  </si>
+  <si>
+    <t>P4-0107</t>
+  </si>
+  <si>
+    <t>بلال أحمد سامي</t>
+  </si>
+  <si>
+    <t>01092887119</t>
+  </si>
+  <si>
+    <t>P7-085</t>
+  </si>
+  <si>
+    <t>P2-0124</t>
+  </si>
+  <si>
+    <t>P4-0108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شذي ماجد مجاهد </t>
+  </si>
+  <si>
+    <t>01001355886</t>
+  </si>
+  <si>
+    <t>["German","دراسات","E.Comprehension","E.Vocab","Maths"]</t>
+  </si>
+  <si>
+    <t>K2-0118</t>
+  </si>
+  <si>
+    <t>ريان مصطفى محمود</t>
+  </si>
+  <si>
+    <t>01030672761</t>
+  </si>
+  <si>
+    <t>01022280923</t>
+  </si>
+  <si>
+    <t>حوض الدرس</t>
+  </si>
+  <si>
+    <t>P1-0149</t>
+  </si>
+  <si>
+    <t>احمد يوسف الشامى</t>
+  </si>
+  <si>
+    <t>01064800205</t>
+  </si>
+  <si>
+    <t>P4-0109</t>
+  </si>
+  <si>
+    <t>["Arabic","Maths","E.Vocab","E.Comprehension","Science","دراسات","German","Character Building"]</t>
+  </si>
+  <si>
+    <t>[1,1,1,1,1,1,1,1]</t>
   </si>
 </sst>
 </file>
@@ -8521,7 +8593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1021"/>
+  <dimension ref="A1:I1030"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -21202,7 +21274,7 @@
         <v>15</v>
       </c>
       <c r="I437" s="2">
-        <v>45152.57018381944</v>
+        <v>45215.806363055555</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
@@ -31830,109 +31902,109 @@
         <v>2108</v>
       </c>
       <c r="D804" t="s">
-        <v>2109</v>
+        <v>12</v>
       </c>
       <c r="E804" t="s">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="F804" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G804" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="H804" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I804" s="2">
-        <v>45190.75562466435</v>
+        <v>45191.55130042824</v>
       </c>
     </row>
     <row r="805" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B805" t="s">
         <v>2110</v>
       </c>
-      <c r="B805" t="s">
+      <c r="C805" t="s">
         <v>2111</v>
       </c>
-      <c r="C805" t="s">
+      <c r="D805" t="s">
         <v>2112</v>
       </c>
-      <c r="D805" t="s">
-        <v>12</v>
-      </c>
       <c r="E805" t="s">
-        <v>12</v>
+        <v>2113</v>
       </c>
       <c r="F805" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="G805" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="H805" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I805" s="2">
-        <v>45191.55130042824</v>
+        <v>45191.79581380787</v>
       </c>
     </row>
     <row r="806" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B806" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C806" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D806" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E806" t="s">
         <v>2113</v>
       </c>
-      <c r="B806" t="s">
-        <v>2114</v>
-      </c>
-      <c r="C806" t="s">
-        <v>2115</v>
-      </c>
-      <c r="D806" t="s">
-        <v>2116</v>
-      </c>
-      <c r="E806" t="s">
-        <v>2117</v>
-      </c>
       <c r="F806" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="G806" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="H806" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I806" s="2">
-        <v>45191.79581380787</v>
+        <v>45191.79581394676</v>
       </c>
     </row>
     <row r="807" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B807" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C807" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D807" t="s">
+        <v>12</v>
+      </c>
+      <c r="E807" t="s">
+        <v>12</v>
+      </c>
+      <c r="F807" t="s">
+        <v>13</v>
+      </c>
+      <c r="G807" t="s">
+        <v>105</v>
+      </c>
+      <c r="H807" t="s">
         <v>2118</v>
       </c>
-      <c r="B807" t="s">
-        <v>2114</v>
-      </c>
-      <c r="C807" t="s">
-        <v>2115</v>
-      </c>
-      <c r="D807" t="s">
-        <v>2116</v>
-      </c>
-      <c r="E807" t="s">
-        <v>2117</v>
-      </c>
-      <c r="F807" t="s">
-        <v>21</v>
-      </c>
-      <c r="G807" t="s">
-        <v>22</v>
-      </c>
-      <c r="H807" t="s">
-        <v>23</v>
-      </c>
       <c r="I807" s="2">
-        <v>45191.79581394676</v>
+        <v>45191.823856250005</v>
       </c>
     </row>
     <row r="808" spans="1:9" x14ac:dyDescent="0.25">
@@ -31940,10 +32012,10 @@
         <v>2119</v>
       </c>
       <c r="B808" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="C808" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
       <c r="D808" t="s">
         <v>12</v>
@@ -31952,33 +32024,33 @@
         <v>12</v>
       </c>
       <c r="F808" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="G808" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="H808" t="s">
-        <v>2122</v>
+        <v>45</v>
       </c>
       <c r="I808" s="2">
-        <v>45191.823856250005</v>
+        <v>45191.82385738426</v>
       </c>
     </row>
     <row r="809" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="B809" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="C809" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="D809" t="s">
         <v>12</v>
       </c>
       <c r="E809" t="s">
-        <v>12</v>
+        <v>1107</v>
       </c>
       <c r="F809" t="s">
         <v>117</v>
@@ -31990,18 +32062,18 @@
         <v>45</v>
       </c>
       <c r="I809" s="2">
-        <v>45191.82385738426</v>
+        <v>45192.39971413194</v>
       </c>
     </row>
     <row r="810" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B810" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="C810" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="D810" t="s">
         <v>12</v>
@@ -32010,21 +32082,21 @@
         <v>1107</v>
       </c>
       <c r="F810" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="G810" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="H810" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I810" s="2">
-        <v>45192.39971413194</v>
+        <v>45192.399714467596</v>
       </c>
     </row>
     <row r="811" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="B811" t="s">
         <v>2125</v>
@@ -32036,30 +32108,30 @@
         <v>12</v>
       </c>
       <c r="E811" t="s">
-        <v>1107</v>
+        <v>152</v>
       </c>
       <c r="F811" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="G811" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="H811" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I811" s="2">
-        <v>45192.399714467596</v>
+        <v>45192.50591619213</v>
       </c>
     </row>
     <row r="812" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B812" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="C812" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
       <c r="D812" t="s">
         <v>12</v>
@@ -32068,21 +32140,21 @@
         <v>152</v>
       </c>
       <c r="F812" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="G812" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="H812" t="s">
-        <v>45</v>
+        <v>846</v>
       </c>
       <c r="I812" s="2">
-        <v>45192.50591619213</v>
+        <v>45192.50591641203</v>
       </c>
     </row>
     <row r="813" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="B813" t="s">
         <v>2129</v>
@@ -32094,31 +32166,31 @@
         <v>12</v>
       </c>
       <c r="E813" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="F813" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G813" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="H813" t="s">
-        <v>846</v>
+        <v>15</v>
       </c>
       <c r="I813" s="2">
-        <v>45192.50591641203</v>
+        <v>45192.72593987269</v>
       </c>
     </row>
     <row r="814" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B814" t="s">
         <v>2132</v>
       </c>
-      <c r="B814" t="s">
+      <c r="C814" t="s">
         <v>2133</v>
       </c>
-      <c r="C814" t="s">
-        <v>2134</v>
-      </c>
       <c r="D814" t="s">
         <v>12</v>
       </c>
@@ -32126,45 +32198,45 @@
         <v>12</v>
       </c>
       <c r="F814" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G814" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H814" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I814" s="2">
-        <v>45192.72593987269</v>
+        <v>45192.824889675925</v>
       </c>
     </row>
     <row r="815" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B815" t="s">
         <v>2135</v>
       </c>
-      <c r="B815" t="s">
+      <c r="C815" t="s">
         <v>2136</v>
       </c>
-      <c r="C815" t="s">
+      <c r="D815" t="s">
         <v>2137</v>
       </c>
-      <c r="D815" t="s">
-        <v>12</v>
-      </c>
       <c r="E815" t="s">
-        <v>12</v>
+        <v>991</v>
       </c>
       <c r="F815" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G815" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="H815" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I815" s="2">
-        <v>45192.824889675925</v>
+        <v>45192.827271145834</v>
       </c>
     </row>
     <row r="816" spans="1:9" x14ac:dyDescent="0.25">
@@ -32178,33 +32250,33 @@
         <v>2140</v>
       </c>
       <c r="D816" t="s">
-        <v>2141</v>
+        <v>12</v>
       </c>
       <c r="E816" t="s">
-        <v>991</v>
+        <v>12</v>
       </c>
       <c r="F816" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G816" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H816" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I816" s="2">
-        <v>45192.827271145834</v>
+        <v>45192.83853511574</v>
       </c>
     </row>
     <row r="817" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B817" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="C817" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
       <c r="D817" t="s">
         <v>12</v>
@@ -32213,21 +32285,21 @@
         <v>12</v>
       </c>
       <c r="F817" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G817" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="H817" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I817" s="2">
-        <v>45192.83853511574</v>
+        <v>45192.83853525463</v>
       </c>
     </row>
     <row r="818" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="B818" t="s">
         <v>2143</v>
@@ -32239,59 +32311,59 @@
         <v>12</v>
       </c>
       <c r="E818" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="F818" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G818" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="H818" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I818" s="2">
-        <v>45192.83853525463</v>
+        <v>45193.27470060185</v>
       </c>
     </row>
     <row r="819" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B819" t="s">
         <v>2146</v>
       </c>
-      <c r="B819" t="s">
+      <c r="C819" t="s">
         <v>2147</v>
       </c>
-      <c r="C819" t="s">
-        <v>2148</v>
-      </c>
       <c r="D819" t="s">
         <v>12</v>
       </c>
       <c r="E819" t="s">
-        <v>152</v>
+        <v>1107</v>
       </c>
       <c r="F819" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G819" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H819" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I819" s="2">
-        <v>45193.27470060185</v>
+        <v>45193.32465504629</v>
       </c>
     </row>
     <row r="820" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B820" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
       <c r="C820" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="D820" t="s">
         <v>12</v>
@@ -32300,21 +32372,21 @@
         <v>1107</v>
       </c>
       <c r="F820" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G820" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="H820" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I820" s="2">
-        <v>45193.32465504629</v>
+        <v>45196.45390146991</v>
       </c>
     </row>
     <row r="821" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="B821" t="s">
         <v>2150</v>
@@ -32326,19 +32398,19 @@
         <v>12</v>
       </c>
       <c r="E821" t="s">
-        <v>1107</v>
+        <v>152</v>
       </c>
       <c r="F821" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G821" t="s">
-        <v>156</v>
+        <v>2152</v>
       </c>
       <c r="H821" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I821" s="2">
-        <v>45196.45390146991</v>
+        <v>45193.41412299768</v>
       </c>
     </row>
     <row r="822" spans="1:9" x14ac:dyDescent="0.25">
@@ -32346,10 +32418,10 @@
         <v>2153</v>
       </c>
       <c r="B822" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="C822" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="D822" t="s">
         <v>12</v>
@@ -32358,56 +32430,56 @@
         <v>152</v>
       </c>
       <c r="F822" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G822" t="s">
-        <v>2156</v>
+        <v>18</v>
       </c>
       <c r="H822" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I822" s="2">
-        <v>45193.41412299768</v>
+        <v>45193.41412313658</v>
       </c>
     </row>
     <row r="823" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="B823" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="C823" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="D823" t="s">
         <v>12</v>
       </c>
       <c r="E823" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="F823" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G823" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H823" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I823" s="2">
-        <v>45193.41412313658</v>
+        <v>45193.579436643515</v>
       </c>
     </row>
     <row r="824" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B824" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="C824" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="D824" t="s">
         <v>12</v>
@@ -32416,21 +32488,21 @@
         <v>12</v>
       </c>
       <c r="F824" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G824" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="H824" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I824" s="2">
-        <v>45193.579436643515</v>
+        <v>45193.57943679398</v>
       </c>
     </row>
     <row r="825" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="B825" t="s">
         <v>2159</v>
@@ -32439,91 +32511,91 @@
         <v>2160</v>
       </c>
       <c r="D825" t="s">
-        <v>12</v>
+        <v>2161</v>
       </c>
       <c r="E825" t="s">
-        <v>12</v>
+        <v>2162</v>
       </c>
       <c r="F825" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G825" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="H825" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I825" s="2">
-        <v>45193.57943679398</v>
+        <v>45193.75785525463</v>
       </c>
     </row>
     <row r="826" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B826" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C826" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D826" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E826" t="s">
         <v>2162</v>
       </c>
-      <c r="B826" t="s">
-        <v>2163</v>
-      </c>
-      <c r="C826" t="s">
+      <c r="F826" t="s">
+        <v>117</v>
+      </c>
+      <c r="G826" t="s">
         <v>2164</v>
       </c>
-      <c r="D826" t="s">
-        <v>2165</v>
-      </c>
-      <c r="E826" t="s">
-        <v>2166</v>
-      </c>
-      <c r="F826" t="s">
-        <v>62</v>
-      </c>
-      <c r="G826" t="s">
-        <v>156</v>
-      </c>
       <c r="H826" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I826" s="2">
-        <v>45193.75785525463</v>
+        <v>45193.75785540509</v>
       </c>
     </row>
     <row r="827" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B827" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C827" t="s">
         <v>2167</v>
       </c>
-      <c r="B827" t="s">
-        <v>2163</v>
-      </c>
-      <c r="C827" t="s">
-        <v>2164</v>
-      </c>
       <c r="D827" t="s">
-        <v>2165</v>
+        <v>12</v>
       </c>
       <c r="E827" t="s">
-        <v>2166</v>
+        <v>152</v>
       </c>
       <c r="F827" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="G827" t="s">
-        <v>2168</v>
+        <v>51</v>
       </c>
       <c r="H827" t="s">
         <v>45</v>
       </c>
       <c r="I827" s="2">
-        <v>45193.75785540509</v>
+        <v>45194.29188599537</v>
       </c>
     </row>
     <row r="828" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B828" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
       <c r="C828" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
       <c r="D828" t="s">
         <v>12</v>
@@ -32532,21 +32604,21 @@
         <v>152</v>
       </c>
       <c r="F828" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G828" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="H828" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I828" s="2">
-        <v>45194.29188599537</v>
+        <v>45194.29188615741</v>
       </c>
     </row>
     <row r="829" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="B829" t="s">
         <v>2170</v>
@@ -32561,27 +32633,27 @@
         <v>152</v>
       </c>
       <c r="F829" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G829" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H829" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I829" s="2">
-        <v>45194.29188615741</v>
+        <v>45194.3417866088</v>
       </c>
     </row>
     <row r="830" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B830" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="C830" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="D830" t="s">
         <v>12</v>
@@ -32590,21 +32662,21 @@
         <v>152</v>
       </c>
       <c r="F830" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G830" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H830" t="s">
-        <v>74</v>
+        <v>409</v>
       </c>
       <c r="I830" s="2">
-        <v>45194.3417866088</v>
+        <v>45194.34178674768</v>
       </c>
     </row>
     <row r="831" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="B831" t="s">
         <v>2174</v>
@@ -32619,27 +32691,27 @@
         <v>152</v>
       </c>
       <c r="F831" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G831" t="s">
-        <v>26</v>
+        <v>1415</v>
       </c>
       <c r="H831" t="s">
-        <v>409</v>
+        <v>67</v>
       </c>
       <c r="I831" s="2">
-        <v>45194.34178674768</v>
+        <v>45194.46898979167</v>
       </c>
     </row>
     <row r="832" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B832" t="s">
-        <v>2178</v>
+        <v>2174</v>
       </c>
       <c r="C832" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
       <c r="D832" t="s">
         <v>12</v>
@@ -32648,27 +32720,27 @@
         <v>152</v>
       </c>
       <c r="F832" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G832" t="s">
-        <v>1415</v>
+        <v>22</v>
       </c>
       <c r="H832" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I832" s="2">
-        <v>45194.46898979167</v>
+        <v>45208.57561222222</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="B833" t="s">
-        <v>2178</v>
+        <v>2174</v>
       </c>
       <c r="C833" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
       <c r="D833" t="s">
         <v>12</v>
@@ -32677,56 +32749,56 @@
         <v>152</v>
       </c>
       <c r="F833" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="G833" t="s">
-        <v>22</v>
+        <v>1249</v>
       </c>
       <c r="H833" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I833" s="2">
-        <v>45208.57561222222</v>
+        <v>45194.46898987269</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
       <c r="B834" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="C834" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="D834" t="s">
         <v>12</v>
       </c>
       <c r="E834" t="s">
-        <v>152</v>
+        <v>1107</v>
       </c>
       <c r="F834" t="s">
-        <v>264</v>
+        <v>62</v>
       </c>
       <c r="G834" t="s">
-        <v>1249</v>
+        <v>156</v>
       </c>
       <c r="H834" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="I834" s="2">
-        <v>45194.46898987269</v>
+        <v>45194.48767163194</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B835" t="s">
         <v>2182</v>
       </c>
-      <c r="B835" t="s">
+      <c r="C835" t="s">
         <v>2183</v>
-      </c>
-      <c r="C835" t="s">
-        <v>2184</v>
       </c>
       <c r="D835" t="s">
         <v>12</v>
@@ -32744,18 +32816,18 @@
         <v>15</v>
       </c>
       <c r="I835" s="2">
-        <v>45194.48767163194</v>
+        <v>45194.48916943287</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B836" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
       <c r="C836" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="D836" t="s">
         <v>12</v>
@@ -32764,21 +32836,21 @@
         <v>1107</v>
       </c>
       <c r="F836" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="G836" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H836" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I836" s="2">
-        <v>45194.48916943287</v>
+        <v>45194.489169513894</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="B837" t="s">
         <v>2186</v>
@@ -32787,80 +32859,80 @@
         <v>2187</v>
       </c>
       <c r="D837" t="s">
-        <v>12</v>
+        <v>2188</v>
       </c>
       <c r="E837" t="s">
-        <v>1107</v>
+        <v>2189</v>
       </c>
       <c r="F837" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="G837" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H837" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I837" s="2">
-        <v>45194.489169513894</v>
+        <v>45194.506318761574</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="B838" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="C838" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="D838" t="s">
-        <v>2192</v>
+        <v>12</v>
       </c>
       <c r="E838" t="s">
-        <v>2193</v>
+        <v>152</v>
       </c>
       <c r="F838" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="G838" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H838" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I838" s="2">
-        <v>45194.506318761574</v>
+        <v>45194.51118016204</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B839" t="s">
         <v>2194</v>
       </c>
-      <c r="B839" t="s">
+      <c r="C839" t="s">
         <v>2195</v>
       </c>
-      <c r="C839" t="s">
+      <c r="D839" t="s">
+        <v>12</v>
+      </c>
+      <c r="E839" t="s">
         <v>2196</v>
       </c>
-      <c r="D839" t="s">
-        <v>12</v>
-      </c>
-      <c r="E839" t="s">
-        <v>152</v>
-      </c>
       <c r="F839" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="G839" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="H839" t="s">
         <v>45</v>
       </c>
       <c r="I839" s="2">
-        <v>45194.51118016204</v>
+        <v>45194.60038201389</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.25">
@@ -32868,68 +32940,68 @@
         <v>2197</v>
       </c>
       <c r="B840" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="C840" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
       <c r="D840" t="s">
         <v>12</v>
       </c>
       <c r="E840" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
       <c r="F840" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G840" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H840" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I840" s="2">
-        <v>45194.60038201389</v>
+        <v>45194.600382881945</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="B841" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="C841" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="D841" t="s">
         <v>12</v>
       </c>
       <c r="E841" t="s">
-        <v>2200</v>
+        <v>12</v>
       </c>
       <c r="F841" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="G841" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="H841" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I841" s="2">
-        <v>45194.600382881945</v>
+        <v>45194.6346965625</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B842" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
       <c r="C842" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="D842" t="s">
         <v>12</v>
@@ -32938,21 +33010,21 @@
         <v>12</v>
       </c>
       <c r="F842" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G842" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="H842" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I842" s="2">
-        <v>45194.6346965625</v>
+        <v>45194.634697037036</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
       <c r="B843" t="s">
         <v>2203</v>
@@ -32967,27 +33039,27 @@
         <v>12</v>
       </c>
       <c r="F843" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="G843" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="H843" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I843" s="2">
-        <v>45194.634697037036</v>
+        <v>45194.651246215275</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B844" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
       <c r="C844" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="D844" t="s">
         <v>12</v>
@@ -32996,21 +33068,21 @@
         <v>12</v>
       </c>
       <c r="F844" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="G844" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="H844" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I844" s="2">
-        <v>45194.651246215275</v>
+        <v>45194.6512462963</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
       <c r="B845" t="s">
         <v>2207</v>
@@ -33019,120 +33091,120 @@
         <v>2208</v>
       </c>
       <c r="D845" t="s">
-        <v>12</v>
+        <v>2209</v>
       </c>
       <c r="E845" t="s">
-        <v>12</v>
+        <v>2210</v>
       </c>
       <c r="F845" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="G845" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="H845" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I845" s="2">
-        <v>45194.6512462963</v>
+        <v>45194.713498495374</v>
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="B846" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="C846" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="D846" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="E846" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="F846" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="G846" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="H846" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I846" s="2">
-        <v>45194.713498495374</v>
+        <v>45194.72092896991</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B847" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C847" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D847" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E847" t="s">
         <v>2215</v>
       </c>
-      <c r="B847" t="s">
-        <v>2216</v>
-      </c>
-      <c r="C847" t="s">
-        <v>2217</v>
-      </c>
-      <c r="D847" t="s">
-        <v>2218</v>
-      </c>
-      <c r="E847" t="s">
-        <v>2219</v>
-      </c>
       <c r="F847" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G847" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H847" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I847" s="2">
-        <v>45194.72092896991</v>
+        <v>45194.72092903935</v>
       </c>
     </row>
     <row r="848" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="B848" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="C848" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="D848" t="s">
-        <v>2218</v>
+        <v>12</v>
       </c>
       <c r="E848" t="s">
-        <v>2219</v>
+        <v>936</v>
       </c>
       <c r="F848" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="G848" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="H848" t="s">
         <v>45</v>
       </c>
       <c r="I848" s="2">
-        <v>45194.72092903935</v>
+        <v>45194.776532303236</v>
       </c>
     </row>
     <row r="849" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B849" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="C849" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="D849" t="s">
         <v>12</v>
@@ -33141,27 +33213,27 @@
         <v>936</v>
       </c>
       <c r="F849" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="G849" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="H849" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I849" s="2">
-        <v>45194.776532303236</v>
+        <v>45194.77653243055</v>
       </c>
     </row>
     <row r="850" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="B850" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="C850" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="D850" t="s">
         <v>12</v>
@@ -33170,27 +33242,27 @@
         <v>936</v>
       </c>
       <c r="F850" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="G850" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="H850" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I850" s="2">
-        <v>45194.77653243055</v>
+        <v>45207.66366040509</v>
       </c>
     </row>
     <row r="851" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="B851" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="C851" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="D851" t="s">
         <v>12</v>
@@ -33199,143 +33271,143 @@
         <v>936</v>
       </c>
       <c r="F851" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="G851" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H851" t="s">
-        <v>36</v>
+        <v>914</v>
       </c>
       <c r="I851" s="2">
-        <v>45207.66366040509</v>
+        <v>45207.66366089121</v>
       </c>
     </row>
     <row r="852" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B852" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C852" t="s">
+        <v>2225</v>
+      </c>
+      <c r="D852" t="s">
         <v>2226</v>
       </c>
-      <c r="B852" t="s">
-        <v>2222</v>
-      </c>
-      <c r="C852" t="s">
-        <v>2223</v>
-      </c>
-      <c r="D852" t="s">
-        <v>12</v>
-      </c>
       <c r="E852" t="s">
-        <v>936</v>
+        <v>2227</v>
       </c>
       <c r="F852" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="G852" t="s">
-        <v>147</v>
+        <v>445</v>
       </c>
       <c r="H852" t="s">
-        <v>914</v>
+        <v>19</v>
       </c>
       <c r="I852" s="2">
-        <v>45207.66366089121</v>
+        <v>45194.82762971065</v>
       </c>
     </row>
     <row r="853" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B853" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C853" t="s">
+        <v>2225</v>
+      </c>
+      <c r="D853" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E853" t="s">
         <v>2227</v>
       </c>
-      <c r="B853" t="s">
-        <v>2228</v>
-      </c>
-      <c r="C853" t="s">
-        <v>2229</v>
-      </c>
-      <c r="D853" t="s">
-        <v>2230</v>
-      </c>
-      <c r="E853" t="s">
-        <v>2231</v>
-      </c>
       <c r="F853" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G853" t="s">
-        <v>445</v>
+        <v>243</v>
       </c>
       <c r="H853" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I853" s="2">
-        <v>45194.82762971065</v>
+        <v>45194.82763072917</v>
       </c>
     </row>
     <row r="854" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="B854" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="C854" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="D854" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
       <c r="E854" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="F854" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G854" t="s">
-        <v>243</v>
+        <v>665</v>
       </c>
       <c r="H854" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I854" s="2">
-        <v>45194.82763072917</v>
+        <v>45194.82763165509</v>
       </c>
     </row>
     <row r="855" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="B855" t="s">
-        <v>2228</v>
+        <v>2231</v>
       </c>
       <c r="C855" t="s">
-        <v>2229</v>
+        <v>2232</v>
       </c>
       <c r="D855" t="s">
-        <v>2230</v>
+        <v>12</v>
       </c>
       <c r="E855" t="s">
-        <v>2231</v>
+        <v>12</v>
       </c>
       <c r="F855" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="G855" t="s">
-        <v>665</v>
+        <v>35</v>
       </c>
       <c r="H855" t="s">
-        <v>15</v>
+        <v>846</v>
       </c>
       <c r="I855" s="2">
-        <v>45194.82763165509</v>
+        <v>45194.85981355324</v>
       </c>
     </row>
     <row r="856" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B856" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
       <c r="C856" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="D856" t="s">
         <v>12</v>
@@ -33344,27 +33416,27 @@
         <v>12</v>
       </c>
       <c r="F856" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G856" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="H856" t="s">
-        <v>846</v>
+        <v>15</v>
       </c>
       <c r="I856" s="2">
-        <v>45194.85981355324</v>
+        <v>45215.29098265046</v>
       </c>
     </row>
     <row r="857" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
       <c r="B857" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
       <c r="C857" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="D857" t="s">
         <v>12</v>
@@ -33373,56 +33445,56 @@
         <v>12</v>
       </c>
       <c r="F857" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G857" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="H857" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I857" s="2">
-        <v>45215.29098265046</v>
+        <v>45194.85981363426</v>
       </c>
     </row>
     <row r="858" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="B858" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="C858" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="D858" t="s">
         <v>12</v>
       </c>
       <c r="E858" t="s">
-        <v>12</v>
+        <v>1107</v>
       </c>
       <c r="F858" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G858" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H858" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I858" s="2">
-        <v>45194.85981363426</v>
+        <v>45195.3623003588</v>
       </c>
     </row>
     <row r="859" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B859" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
       <c r="C859" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="D859" t="s">
         <v>12</v>
@@ -33431,21 +33503,21 @@
         <v>1107</v>
       </c>
       <c r="F859" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="G859" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="H859" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I859" s="2">
-        <v>45195.3623003588</v>
+        <v>45195.36230145833</v>
       </c>
     </row>
     <row r="860" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="B860" t="s">
         <v>2240</v>
@@ -33460,27 +33532,27 @@
         <v>1107</v>
       </c>
       <c r="F860" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G860" t="s">
-        <v>147</v>
+        <v>2088</v>
       </c>
       <c r="H860" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I860" s="2">
-        <v>45195.36230145833</v>
+        <v>45195.41689287037</v>
       </c>
     </row>
     <row r="861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="B861" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
       <c r="C861" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="D861" t="s">
         <v>12</v>
@@ -33489,21 +33561,21 @@
         <v>1107</v>
       </c>
       <c r="F861" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="G861" t="s">
-        <v>2088</v>
+        <v>102</v>
       </c>
       <c r="H861" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I861" s="2">
-        <v>45195.41689287037</v>
+        <v>45195.41689296297</v>
       </c>
     </row>
     <row r="862" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="B862" t="s">
         <v>2244</v>
@@ -33512,91 +33584,91 @@
         <v>2245</v>
       </c>
       <c r="D862" t="s">
-        <v>12</v>
+        <v>2246</v>
       </c>
       <c r="E862" t="s">
-        <v>1107</v>
+        <v>2247</v>
       </c>
       <c r="F862" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G862" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H862" t="s">
         <v>19</v>
       </c>
       <c r="I862" s="2">
-        <v>45195.41689296297</v>
+        <v>45195.76909487268</v>
       </c>
     </row>
     <row r="863" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="B863" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="C863" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="D863" t="s">
-        <v>2250</v>
+        <v>12</v>
       </c>
       <c r="E863" t="s">
-        <v>2251</v>
+        <v>12</v>
       </c>
       <c r="F863" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G863" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H863" t="s">
         <v>19</v>
       </c>
       <c r="I863" s="2">
-        <v>45195.76909487268</v>
+        <v>45196.34912989583</v>
       </c>
     </row>
     <row r="864" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B864" t="s">
         <v>2252</v>
       </c>
-      <c r="B864" t="s">
+      <c r="C864" t="s">
         <v>2253</v>
       </c>
-      <c r="C864" t="s">
-        <v>2254</v>
-      </c>
       <c r="D864" t="s">
         <v>12</v>
       </c>
       <c r="E864" t="s">
-        <v>12</v>
+        <v>1107</v>
       </c>
       <c r="F864" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G864" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="H864" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I864" s="2">
-        <v>45196.34912989583</v>
+        <v>45196.40646672454</v>
       </c>
     </row>
     <row r="865" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B865" t="s">
         <v>2255</v>
       </c>
-      <c r="B865" t="s">
+      <c r="C865" t="s">
         <v>2256</v>
-      </c>
-      <c r="C865" t="s">
-        <v>2257</v>
       </c>
       <c r="D865" t="s">
         <v>12</v>
@@ -33605,45 +33677,45 @@
         <v>1107</v>
       </c>
       <c r="F865" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="G865" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="H865" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I865" s="2">
-        <v>45196.40646672454</v>
+        <v>45196.415799131944</v>
       </c>
     </row>
     <row r="866" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B866" t="s">
         <v>2258</v>
       </c>
-      <c r="B866" t="s">
+      <c r="C866" t="s">
         <v>2259</v>
       </c>
-      <c r="C866" t="s">
+      <c r="D866" t="s">
+        <v>12</v>
+      </c>
+      <c r="E866" t="s">
+        <v>12</v>
+      </c>
+      <c r="F866" t="s">
+        <v>34</v>
+      </c>
+      <c r="G866" t="s">
         <v>2260</v>
       </c>
-      <c r="D866" t="s">
-        <v>12</v>
-      </c>
-      <c r="E866" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F866" t="s">
-        <v>264</v>
-      </c>
-      <c r="G866" t="s">
-        <v>105</v>
-      </c>
       <c r="H866" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I866" s="2">
-        <v>45196.415799131944</v>
+        <v>45196.4475322338</v>
       </c>
     </row>
     <row r="867" spans="1:9" x14ac:dyDescent="0.25">
@@ -33663,30 +33735,30 @@
         <v>12</v>
       </c>
       <c r="F867" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="G867" t="s">
-        <v>2264</v>
+        <v>147</v>
       </c>
       <c r="H867" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I867" s="2">
-        <v>45196.4475322338</v>
+        <v>45196.49094462963</v>
       </c>
     </row>
     <row r="868" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B868" t="s">
         <v>2265</v>
       </c>
-      <c r="B868" t="s">
+      <c r="C868" t="s">
         <v>2266</v>
       </c>
-      <c r="C868" t="s">
+      <c r="D868" t="s">
         <v>2267</v>
-      </c>
-      <c r="D868" t="s">
-        <v>12</v>
       </c>
       <c r="E868" t="s">
         <v>12</v>
@@ -33701,7 +33773,7 @@
         <v>45</v>
       </c>
       <c r="I868" s="2">
-        <v>45196.49094462963</v>
+        <v>45196.67515946759</v>
       </c>
     </row>
     <row r="869" spans="1:9" x14ac:dyDescent="0.25">
@@ -33715,62 +33787,62 @@
         <v>2270</v>
       </c>
       <c r="D869" t="s">
-        <v>2271</v>
+        <v>12</v>
       </c>
       <c r="E869" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="F869" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="G869" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="H869" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I869" s="2">
-        <v>45196.67515946759</v>
+        <v>45197.32531269676</v>
       </c>
     </row>
     <row r="870" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B870" t="s">
         <v>2272</v>
       </c>
-      <c r="B870" t="s">
+      <c r="C870" t="s">
         <v>2273</v>
       </c>
-      <c r="C870" t="s">
-        <v>2274</v>
-      </c>
       <c r="D870" t="s">
         <v>12</v>
       </c>
       <c r="E870" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="F870" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G870" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="H870" t="s">
         <v>15</v>
       </c>
       <c r="I870" s="2">
-        <v>45197.32531269676</v>
+        <v>45197.73308653935</v>
       </c>
     </row>
     <row r="871" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="B871" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C871" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="D871" t="s">
         <v>12</v>
@@ -33779,21 +33851,21 @@
         <v>12</v>
       </c>
       <c r="F871" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G871" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H871" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I871" s="2">
-        <v>45197.73308653935</v>
+        <v>45197.73308677084</v>
       </c>
     </row>
     <row r="872" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="B872" t="s">
         <v>2276</v>
@@ -33811,42 +33883,42 @@
         <v>50</v>
       </c>
       <c r="G872" t="s">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="H872" t="s">
         <v>45</v>
       </c>
       <c r="I872" s="2">
-        <v>45197.73308677084</v>
+        <v>45197.76895511574</v>
       </c>
     </row>
     <row r="873" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B873" t="s">
         <v>2279</v>
       </c>
-      <c r="B873" t="s">
+      <c r="C873" t="s">
         <v>2280</v>
       </c>
-      <c r="C873" t="s">
+      <c r="D873" t="s">
+        <v>12</v>
+      </c>
+      <c r="E873" t="s">
         <v>2281</v>
       </c>
-      <c r="D873" t="s">
-        <v>12</v>
-      </c>
-      <c r="E873" t="s">
-        <v>12</v>
-      </c>
       <c r="F873" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G873" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="H873" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I873" s="2">
-        <v>45197.76895511574</v>
+        <v>45198.55949702546</v>
       </c>
     </row>
     <row r="874" spans="1:9" x14ac:dyDescent="0.25">
@@ -33854,97 +33926,97 @@
         <v>2282</v>
       </c>
       <c r="B874" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="C874" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
       <c r="D874" t="s">
         <v>12</v>
       </c>
       <c r="E874" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
       <c r="F874" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="G874" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="H874" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I874" s="2">
-        <v>45198.55949702546</v>
+        <v>45198.55949716435</v>
       </c>
     </row>
     <row r="875" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="B875" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="C875" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
       <c r="D875" t="s">
         <v>12</v>
       </c>
       <c r="E875" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
       <c r="F875" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="G875" t="s">
-        <v>208</v>
+        <v>1252</v>
       </c>
       <c r="H875" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="I875" s="2">
-        <v>45198.55949716435</v>
+        <v>45198.55949773148</v>
       </c>
     </row>
     <row r="876" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="B876" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="C876" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="D876" t="s">
         <v>12</v>
       </c>
       <c r="E876" t="s">
-        <v>2285</v>
+        <v>12</v>
       </c>
       <c r="F876" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="G876" t="s">
-        <v>1252</v>
+        <v>147</v>
       </c>
       <c r="H876" t="s">
         <v>45</v>
       </c>
       <c r="I876" s="2">
-        <v>45198.55949773148</v>
+        <v>45198.56868793981</v>
       </c>
     </row>
     <row r="877" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B877" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
       <c r="C877" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
       <c r="D877" t="s">
         <v>12</v>
@@ -33953,21 +34025,21 @@
         <v>12</v>
       </c>
       <c r="F877" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="G877" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="H877" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I877" s="2">
-        <v>45198.56868793981</v>
+        <v>45198.5686887037</v>
       </c>
     </row>
     <row r="878" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="B878" t="s">
         <v>2289</v>
@@ -33976,109 +34048,109 @@
         <v>2290</v>
       </c>
       <c r="D878" t="s">
-        <v>12</v>
+        <v>2291</v>
       </c>
       <c r="E878" t="s">
         <v>12</v>
       </c>
       <c r="F878" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G878" t="s">
-        <v>102</v>
+        <v>2292</v>
       </c>
       <c r="H878" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I878" s="2">
-        <v>45198.5686887037</v>
+        <v>45198.7574359375</v>
       </c>
     </row>
     <row r="879" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="B879" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="C879" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="D879" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
       <c r="E879" t="s">
         <v>12</v>
       </c>
       <c r="F879" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G879" t="s">
-        <v>2296</v>
+        <v>42</v>
       </c>
       <c r="H879" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I879" s="2">
-        <v>45198.7574359375</v>
+        <v>45198.757436099535</v>
       </c>
     </row>
     <row r="880" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
       <c r="B880" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="C880" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="D880" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
       <c r="E880" t="s">
         <v>12</v>
       </c>
       <c r="F880" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="G880" t="s">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="H880" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I880" s="2">
-        <v>45198.757436099535</v>
+        <v>45198.75743643519</v>
       </c>
     </row>
     <row r="881" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B881" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C881" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D881" t="s">
+        <v>12</v>
+      </c>
+      <c r="E881" t="s">
+        <v>152</v>
+      </c>
+      <c r="F881" t="s">
+        <v>31</v>
+      </c>
+      <c r="G881" t="s">
+        <v>102</v>
+      </c>
+      <c r="H881" t="s">
         <v>2298</v>
       </c>
-      <c r="B881" t="s">
-        <v>2293</v>
-      </c>
-      <c r="C881" t="s">
-        <v>2294</v>
-      </c>
-      <c r="D881" t="s">
-        <v>2295</v>
-      </c>
-      <c r="E881" t="s">
-        <v>12</v>
-      </c>
-      <c r="F881" t="s">
-        <v>104</v>
-      </c>
-      <c r="G881" t="s">
-        <v>265</v>
-      </c>
-      <c r="H881" t="s">
-        <v>23</v>
-      </c>
       <c r="I881" s="2">
-        <v>45198.75743643519</v>
+        <v>45199.38947810185</v>
       </c>
     </row>
     <row r="882" spans="1:9" x14ac:dyDescent="0.25">
@@ -34086,10 +34158,10 @@
         <v>2299</v>
       </c>
       <c r="B882" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="C882" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="D882" t="s">
         <v>12</v>
@@ -34098,27 +34170,27 @@
         <v>152</v>
       </c>
       <c r="F882" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="G882" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="H882" t="s">
-        <v>2302</v>
+        <v>771</v>
       </c>
       <c r="I882" s="2">
-        <v>45199.38947810185</v>
+        <v>45199.38947877315</v>
       </c>
     </row>
     <row r="883" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="B883" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="C883" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="D883" t="s">
         <v>12</v>
@@ -34127,45 +34199,45 @@
         <v>152</v>
       </c>
       <c r="F883" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="G883" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H883" t="s">
-        <v>771</v>
+        <v>15</v>
       </c>
       <c r="I883" s="2">
-        <v>45199.38947877315</v>
+        <v>45199.389478854166</v>
       </c>
     </row>
     <row r="884" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B884" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C884" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D884" t="s">
+        <v>12</v>
+      </c>
+      <c r="E884" t="s">
         <v>2304</v>
       </c>
-      <c r="B884" t="s">
-        <v>2300</v>
-      </c>
-      <c r="C884" t="s">
-        <v>2301</v>
-      </c>
-      <c r="D884" t="s">
-        <v>12</v>
-      </c>
-      <c r="E884" t="s">
-        <v>152</v>
-      </c>
       <c r="F884" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G884" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="H884" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I884" s="2">
-        <v>45199.389478854166</v>
+        <v>45199.39379002315</v>
       </c>
     </row>
     <row r="885" spans="1:9" x14ac:dyDescent="0.25">
@@ -34182,59 +34254,59 @@
         <v>12</v>
       </c>
       <c r="E885" t="s">
-        <v>2308</v>
+        <v>152</v>
       </c>
       <c r="F885" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G885" t="s">
-        <v>18</v>
+        <v>665</v>
       </c>
       <c r="H885" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I885" s="2">
-        <v>45199.39379002315</v>
+        <v>45199.411154733796</v>
       </c>
     </row>
     <row r="886" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B886" t="s">
         <v>2309</v>
       </c>
-      <c r="B886" t="s">
+      <c r="C886" t="s">
         <v>2310</v>
       </c>
-      <c r="C886" t="s">
-        <v>2311</v>
-      </c>
       <c r="D886" t="s">
         <v>12</v>
       </c>
       <c r="E886" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="F886" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G886" t="s">
-        <v>665</v>
+        <v>18</v>
       </c>
       <c r="H886" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I886" s="2">
-        <v>45199.411154733796</v>
+        <v>45199.648214988425</v>
       </c>
     </row>
     <row r="887" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B887" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="C887" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D887" t="s">
         <v>12</v>
@@ -34243,21 +34315,21 @@
         <v>12</v>
       </c>
       <c r="F887" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G887" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H887" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I887" s="2">
-        <v>45199.648214988425</v>
+        <v>45199.64821488426</v>
       </c>
     </row>
     <row r="888" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="B888" t="s">
         <v>2313</v>
@@ -34269,30 +34341,30 @@
         <v>12</v>
       </c>
       <c r="E888" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="F888" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G888" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H888" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I888" s="2">
-        <v>45199.64821488426</v>
+        <v>45199.70084071759</v>
       </c>
     </row>
     <row r="889" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="B889" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="C889" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="D889" t="s">
         <v>12</v>
@@ -34301,21 +34373,21 @@
         <v>152</v>
       </c>
       <c r="F889" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G889" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H889" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I889" s="2">
-        <v>45199.70084071759</v>
+        <v>45199.700840844904</v>
       </c>
     </row>
     <row r="890" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="B890" t="s">
         <v>2317</v>
@@ -34327,19 +34399,19 @@
         <v>12</v>
       </c>
       <c r="E890" t="s">
-        <v>152</v>
+        <v>2319</v>
       </c>
       <c r="F890" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G890" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="H890" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I890" s="2">
-        <v>45199.700840844904</v>
+        <v>45199.75283012731</v>
       </c>
     </row>
     <row r="891" spans="1:9" x14ac:dyDescent="0.25">
@@ -34347,57 +34419,57 @@
         <v>2320</v>
       </c>
       <c r="B891" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="C891" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
       <c r="D891" t="s">
         <v>12</v>
       </c>
       <c r="E891" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="F891" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G891" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H891" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I891" s="2">
-        <v>45199.75283012731</v>
+        <v>45209.272483402776</v>
       </c>
     </row>
     <row r="892" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B892" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C892" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D892" t="s">
+        <v>12</v>
+      </c>
+      <c r="E892" t="s">
         <v>2324</v>
       </c>
-      <c r="B892" t="s">
-        <v>2321</v>
-      </c>
-      <c r="C892" t="s">
-        <v>2322</v>
-      </c>
-      <c r="D892" t="s">
-        <v>12</v>
-      </c>
-      <c r="E892" t="s">
-        <v>2323</v>
-      </c>
       <c r="F892" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G892" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="H892" t="s">
         <v>15</v>
       </c>
       <c r="I892" s="2">
-        <v>45209.272483402776</v>
+        <v>45200.29586802083</v>
       </c>
     </row>
     <row r="893" spans="1:9" x14ac:dyDescent="0.25">
@@ -34414,7 +34486,7 @@
         <v>12</v>
       </c>
       <c r="E893" t="s">
-        <v>2328</v>
+        <v>152</v>
       </c>
       <c r="F893" t="s">
         <v>62</v>
@@ -34423,21 +34495,21 @@
         <v>156</v>
       </c>
       <c r="H893" t="s">
-        <v>15</v>
+        <v>432</v>
       </c>
       <c r="I893" s="2">
-        <v>45200.29586802083</v>
+        <v>45200.41958711806</v>
       </c>
     </row>
     <row r="894" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B894" t="s">
         <v>2329</v>
       </c>
-      <c r="B894" t="s">
+      <c r="C894" t="s">
         <v>2330</v>
-      </c>
-      <c r="C894" t="s">
-        <v>2331</v>
       </c>
       <c r="D894" t="s">
         <v>12</v>
@@ -34446,27 +34518,27 @@
         <v>152</v>
       </c>
       <c r="F894" t="s">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c r="G894" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="H894" t="s">
-        <v>432</v>
+        <v>15</v>
       </c>
       <c r="I894" s="2">
-        <v>45200.41958711806</v>
+        <v>45200.53553607639</v>
       </c>
     </row>
     <row r="895" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="B895" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="C895" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="D895" t="s">
         <v>12</v>
@@ -34475,27 +34547,27 @@
         <v>152</v>
       </c>
       <c r="F895" t="s">
-        <v>264</v>
+        <v>34</v>
       </c>
       <c r="G895" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="H895" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I895" s="2">
-        <v>45200.53553607639</v>
+        <v>45200.5355371412</v>
       </c>
     </row>
     <row r="896" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="B896" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="C896" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="D896" t="s">
         <v>12</v>
@@ -34504,56 +34576,56 @@
         <v>152</v>
       </c>
       <c r="F896" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G896" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H896" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I896" s="2">
-        <v>45200.5355371412</v>
+        <v>45200.53553826389</v>
       </c>
     </row>
     <row r="897" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="B897" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="C897" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="D897" t="s">
         <v>12</v>
       </c>
       <c r="E897" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="F897" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="G897" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="H897" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="I897" s="2">
-        <v>45200.53553826389</v>
+        <v>45200.563717916666</v>
       </c>
     </row>
     <row r="898" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="B898" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
       <c r="C898" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
       <c r="D898" t="s">
         <v>12</v>
@@ -34562,21 +34634,21 @@
         <v>12</v>
       </c>
       <c r="F898" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="G898" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="H898" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I898" s="2">
-        <v>45200.563717916666</v>
+        <v>45200.56371803241</v>
       </c>
     </row>
     <row r="899" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="B899" t="s">
         <v>2338</v>
@@ -34591,33 +34663,33 @@
         <v>12</v>
       </c>
       <c r="F899" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="G899" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="H899" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I899" s="2">
-        <v>45200.56371803241</v>
+        <v>45200.660555787035</v>
       </c>
     </row>
     <row r="900" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B900" t="s">
         <v>2341</v>
       </c>
-      <c r="B900" t="s">
+      <c r="C900" t="s">
         <v>2342</v>
       </c>
-      <c r="C900" t="s">
+      <c r="D900" t="s">
+        <v>12</v>
+      </c>
+      <c r="E900" t="s">
         <v>2343</v>
-      </c>
-      <c r="D900" t="s">
-        <v>12</v>
-      </c>
-      <c r="E900" t="s">
-        <v>12</v>
       </c>
       <c r="F900" t="s">
         <v>117</v>
@@ -34629,7 +34701,7 @@
         <v>45</v>
       </c>
       <c r="I900" s="2">
-        <v>45200.660555787035</v>
+        <v>45200.66366679398</v>
       </c>
     </row>
     <row r="901" spans="1:9" x14ac:dyDescent="0.25">
@@ -34646,30 +34718,30 @@
         <v>12</v>
       </c>
       <c r="E901" t="s">
-        <v>2347</v>
+        <v>12</v>
       </c>
       <c r="F901" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="G901" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="H901" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I901" s="2">
-        <v>45200.66366679398</v>
+        <v>45200.687416932866</v>
       </c>
     </row>
     <row r="902" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B902" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
       <c r="C902" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
       <c r="D902" t="s">
         <v>12</v>
@@ -34678,27 +34750,27 @@
         <v>12</v>
       </c>
       <c r="F902" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G902" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H902" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I902" s="2">
-        <v>45200.687416932866</v>
+        <v>45200.68741778935</v>
       </c>
     </row>
     <row r="903" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="B903" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
       <c r="C903" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
       <c r="D903" t="s">
         <v>12</v>
@@ -34707,27 +34779,27 @@
         <v>12</v>
       </c>
       <c r="F903" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="G903" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="H903" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I903" s="2">
-        <v>45200.68741778935</v>
+        <v>45200.68741788194</v>
       </c>
     </row>
     <row r="904" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="B904" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="C904" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="D904" t="s">
         <v>12</v>
@@ -34736,74 +34808,74 @@
         <v>12</v>
       </c>
       <c r="F904" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="G904" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="H904" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I904" s="2">
-        <v>45200.68741788194</v>
+        <v>45200.6921090625</v>
       </c>
     </row>
     <row r="905" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B905" t="s">
         <v>2353</v>
       </c>
-      <c r="B905" t="s">
+      <c r="C905" t="s">
         <v>2354</v>
       </c>
-      <c r="C905" t="s">
+      <c r="D905" t="s">
         <v>2355</v>
       </c>
-      <c r="D905" t="s">
-        <v>12</v>
-      </c>
       <c r="E905" t="s">
-        <v>12</v>
+        <v>991</v>
       </c>
       <c r="F905" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G905" t="s">
-        <v>123</v>
+        <v>665</v>
       </c>
       <c r="H905" t="s">
-        <v>19</v>
+        <v>2356</v>
       </c>
       <c r="I905" s="2">
-        <v>45200.6921090625</v>
+        <v>45200.69855197916</v>
       </c>
     </row>
     <row r="906" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="B906" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="C906" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="D906" t="s">
-        <v>2359</v>
+        <v>12</v>
       </c>
       <c r="E906" t="s">
-        <v>991</v>
+        <v>2360</v>
       </c>
       <c r="F906" t="s">
-        <v>13</v>
+        <v>264</v>
       </c>
       <c r="G906" t="s">
-        <v>665</v>
+        <v>105</v>
       </c>
       <c r="H906" t="s">
-        <v>2360</v>
+        <v>15</v>
       </c>
       <c r="I906" s="2">
-        <v>45200.69855197916</v>
+        <v>45200.73560784722</v>
       </c>
     </row>
     <row r="907" spans="1:9" x14ac:dyDescent="0.25">
@@ -34811,115 +34883,115 @@
         <v>2361</v>
       </c>
       <c r="B907" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="C907" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="D907" t="s">
         <v>12</v>
       </c>
       <c r="E907" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="F907" t="s">
-        <v>264</v>
+        <v>34</v>
       </c>
       <c r="G907" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="H907" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I907" s="2">
-        <v>45200.73560784722</v>
+        <v>45200.73560797454</v>
       </c>
     </row>
     <row r="908" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="B908" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="C908" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="D908" t="s">
         <v>12</v>
       </c>
       <c r="E908" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="F908" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G908" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H908" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I908" s="2">
-        <v>45200.73560797454</v>
+        <v>45200.73560828704</v>
       </c>
     </row>
     <row r="909" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="B909" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
       <c r="C909" t="s">
-        <v>2363</v>
+        <v>2365</v>
       </c>
       <c r="D909" t="s">
         <v>12</v>
       </c>
       <c r="E909" t="s">
-        <v>2364</v>
+        <v>1107</v>
       </c>
       <c r="F909" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G909" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H909" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I909" s="2">
-        <v>45200.73560828704</v>
+        <v>45201.417740624995</v>
       </c>
     </row>
     <row r="910" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B910" t="s">
         <v>2367</v>
       </c>
-      <c r="B910" t="s">
+      <c r="C910" t="s">
         <v>2368</v>
       </c>
-      <c r="C910" t="s">
+      <c r="D910" t="s">
+        <v>12</v>
+      </c>
+      <c r="E910" t="s">
+        <v>152</v>
+      </c>
+      <c r="F910" t="s">
+        <v>50</v>
+      </c>
+      <c r="G910" t="s">
         <v>2369</v>
       </c>
-      <c r="D910" t="s">
-        <v>12</v>
-      </c>
-      <c r="E910" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F910" t="s">
-        <v>13</v>
-      </c>
-      <c r="G910" t="s">
-        <v>105</v>
-      </c>
       <c r="H910" t="s">
-        <v>15</v>
+        <v>1400</v>
       </c>
       <c r="I910" s="2">
-        <v>45201.417740624995</v>
+        <v>45201.4807959375</v>
       </c>
     </row>
     <row r="911" spans="1:9" x14ac:dyDescent="0.25">
@@ -34936,30 +35008,30 @@
         <v>12</v>
       </c>
       <c r="E911" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="F911" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G911" t="s">
-        <v>2373</v>
+        <v>35</v>
       </c>
       <c r="H911" t="s">
-        <v>1400</v>
+        <v>36</v>
       </c>
       <c r="I911" s="2">
-        <v>45201.4807959375</v>
+        <v>45201.50988078704</v>
       </c>
     </row>
     <row r="912" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B912" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="C912" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="D912" t="s">
         <v>12</v>
@@ -34968,21 +35040,21 @@
         <v>12</v>
       </c>
       <c r="F912" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G912" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="H912" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I912" s="2">
-        <v>45201.50988078704</v>
+        <v>45201.50988096065</v>
       </c>
     </row>
     <row r="913" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="B913" t="s">
         <v>2375</v>
@@ -34991,179 +35063,179 @@
         <v>2376</v>
       </c>
       <c r="D913" t="s">
-        <v>12</v>
+        <v>2377</v>
       </c>
       <c r="E913" t="s">
-        <v>12</v>
+        <v>2378</v>
       </c>
       <c r="F913" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G913" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="H913" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I913" s="2">
-        <v>45201.50988096065</v>
+        <v>45201.6488603125</v>
       </c>
     </row>
     <row r="914" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="B914" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="C914" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="D914" t="s">
-        <v>2381</v>
+        <v>12</v>
       </c>
       <c r="E914" t="s">
-        <v>2382</v>
+        <v>12</v>
       </c>
       <c r="F914" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="G914" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="H914" t="s">
-        <v>23</v>
+        <v>409</v>
       </c>
       <c r="I914" s="2">
-        <v>45201.6488603125</v>
+        <v>45201.660181921296</v>
       </c>
     </row>
     <row r="915" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B915" t="s">
         <v>2383</v>
       </c>
-      <c r="B915" t="s">
+      <c r="C915" t="s">
         <v>2384</v>
       </c>
-      <c r="C915" t="s">
+      <c r="D915" t="s">
         <v>2385</v>
       </c>
-      <c r="D915" t="s">
-        <v>12</v>
-      </c>
       <c r="E915" t="s">
-        <v>12</v>
+        <v>2386</v>
       </c>
       <c r="F915" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G915" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H915" t="s">
-        <v>409</v>
+        <v>970</v>
       </c>
       <c r="I915" s="2">
-        <v>45201.660181921296</v>
+        <v>45201.68489991898</v>
       </c>
     </row>
     <row r="916" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="B916" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="C916" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="D916" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="E916" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="F916" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="G916" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="H916" t="s">
-        <v>970</v>
+        <v>67</v>
       </c>
       <c r="I916" s="2">
-        <v>45201.68489991898</v>
+        <v>45201.71746883102</v>
       </c>
     </row>
     <row r="917" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B917" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C917" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D917" t="s">
+        <v>2390</v>
+      </c>
+      <c r="E917" t="s">
         <v>2391</v>
       </c>
-      <c r="B917" t="s">
-        <v>2392</v>
-      </c>
-      <c r="C917" t="s">
-        <v>2393</v>
-      </c>
-      <c r="D917" t="s">
-        <v>2394</v>
-      </c>
-      <c r="E917" t="s">
-        <v>2395</v>
-      </c>
       <c r="F917" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="G917" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="H917" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I917" s="2">
-        <v>45201.71746883102</v>
+        <v>45201.71746944444</v>
       </c>
     </row>
     <row r="918" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="B918" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C918" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
       <c r="D918" t="s">
-        <v>2394</v>
+        <v>12</v>
       </c>
       <c r="E918" t="s">
-        <v>2395</v>
+        <v>12</v>
       </c>
       <c r="F918" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="G918" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="H918" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I918" s="2">
-        <v>45201.71746944444</v>
+        <v>45201.739837905094</v>
       </c>
     </row>
     <row r="919" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B919" t="s">
         <v>2397</v>
       </c>
-      <c r="B919" t="s">
+      <c r="C919" t="s">
         <v>2398</v>
       </c>
-      <c r="C919" t="s">
-        <v>2399</v>
-      </c>
       <c r="D919" t="s">
         <v>12</v>
       </c>
@@ -35171,27 +35243,27 @@
         <v>12</v>
       </c>
       <c r="F919" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G919" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="H919" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I919" s="2">
-        <v>45201.739837905094</v>
+        <v>45201.799639375</v>
       </c>
     </row>
     <row r="920" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="B920" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
       <c r="C920" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
       <c r="D920" t="s">
         <v>12</v>
@@ -35200,21 +35272,21 @@
         <v>12</v>
       </c>
       <c r="F920" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G920" t="s">
-        <v>243</v>
+        <v>665</v>
       </c>
       <c r="H920" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I920" s="2">
-        <v>45201.799639375</v>
+        <v>45201.799640150464</v>
       </c>
     </row>
     <row r="921" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="B921" t="s">
         <v>2401</v>
@@ -35226,30 +35298,30 @@
         <v>12</v>
       </c>
       <c r="E921" t="s">
-        <v>12</v>
+        <v>957</v>
       </c>
       <c r="F921" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="G921" t="s">
-        <v>665</v>
+        <v>156</v>
       </c>
       <c r="H921" t="s">
         <v>15</v>
       </c>
       <c r="I921" s="2">
-        <v>45201.799640150464</v>
+        <v>45201.81079149306</v>
       </c>
     </row>
     <row r="922" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="B922" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="C922" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="D922" t="s">
         <v>12</v>
@@ -35258,21 +35330,21 @@
         <v>957</v>
       </c>
       <c r="F922" t="s">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c r="G922" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="H922" t="s">
-        <v>15</v>
+        <v>1440</v>
       </c>
       <c r="I922" s="2">
-        <v>45201.81079149306</v>
+        <v>45201.8107916088</v>
       </c>
     </row>
     <row r="923" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="B923" t="s">
         <v>2405</v>
@@ -35284,59 +35356,59 @@
         <v>12</v>
       </c>
       <c r="E923" t="s">
-        <v>957</v>
+        <v>152</v>
       </c>
       <c r="F923" t="s">
-        <v>264</v>
+        <v>50</v>
       </c>
       <c r="G923" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="H923" t="s">
-        <v>1440</v>
+        <v>45</v>
       </c>
       <c r="I923" s="2">
-        <v>45201.8107916088</v>
+        <v>45202.41259627315</v>
       </c>
     </row>
     <row r="924" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B924" t="s">
         <v>2408</v>
       </c>
-      <c r="B924" t="s">
+      <c r="C924" t="s">
         <v>2409</v>
       </c>
-      <c r="C924" t="s">
-        <v>2410</v>
-      </c>
       <c r="D924" t="s">
         <v>12</v>
       </c>
       <c r="E924" t="s">
-        <v>152</v>
+        <v>991</v>
       </c>
       <c r="F924" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G924" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="H924" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I924" s="2">
-        <v>45202.41259627315</v>
+        <v>45203.44529461805</v>
       </c>
     </row>
     <row r="925" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B925" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="C925" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="D925" t="s">
         <v>12</v>
@@ -35345,27 +35417,27 @@
         <v>991</v>
       </c>
       <c r="F925" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="G925" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="H925" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I925" s="2">
-        <v>45203.44529461805</v>
+        <v>45203.44529554398</v>
       </c>
     </row>
     <row r="926" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="B926" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="C926" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="D926" t="s">
         <v>12</v>
@@ -35374,74 +35446,74 @@
         <v>991</v>
       </c>
       <c r="F926" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="G926" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="H926" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I926" s="2">
-        <v>45203.44529554398</v>
+        <v>45203.445295625</v>
       </c>
     </row>
     <row r="927" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="B927" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="C927" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="D927" t="s">
         <v>12</v>
       </c>
       <c r="E927" t="s">
-        <v>991</v>
+        <v>152</v>
       </c>
       <c r="F927" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G927" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="H927" t="s">
         <v>19</v>
       </c>
       <c r="I927" s="2">
-        <v>45203.445295625</v>
+        <v>45203.47692858796</v>
       </c>
     </row>
     <row r="928" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B928" t="s">
         <v>2416</v>
       </c>
-      <c r="B928" t="s">
+      <c r="C928" t="s">
         <v>2417</v>
       </c>
-      <c r="C928" t="s">
+      <c r="D928" t="s">
+        <v>12</v>
+      </c>
+      <c r="E928" t="s">
+        <v>12</v>
+      </c>
+      <c r="F928" t="s">
+        <v>104</v>
+      </c>
+      <c r="G928" t="s">
         <v>2418</v>
       </c>
-      <c r="D928" t="s">
-        <v>12</v>
-      </c>
-      <c r="E928" t="s">
-        <v>152</v>
-      </c>
-      <c r="F928" t="s">
-        <v>31</v>
-      </c>
-      <c r="G928" t="s">
-        <v>102</v>
-      </c>
       <c r="H928" t="s">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="I928" s="2">
-        <v>45203.47692858796</v>
+        <v>45203.71581673611</v>
       </c>
     </row>
     <row r="929" spans="1:9" x14ac:dyDescent="0.25">
@@ -35461,45 +35533,45 @@
         <v>12</v>
       </c>
       <c r="F929" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="G929" t="s">
-        <v>2422</v>
+        <v>102</v>
       </c>
       <c r="H929" t="s">
-        <v>259</v>
+        <v>19</v>
       </c>
       <c r="I929" s="2">
-        <v>45203.71581673611</v>
+        <v>45203.85636480324</v>
       </c>
     </row>
     <row r="930" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B930" t="s">
         <v>2423</v>
       </c>
-      <c r="B930" t="s">
+      <c r="C930" t="s">
         <v>2424</v>
       </c>
-      <c r="C930" t="s">
+      <c r="D930" t="s">
+        <v>12</v>
+      </c>
+      <c r="E930" t="s">
         <v>2425</v>
       </c>
-      <c r="D930" t="s">
-        <v>12</v>
-      </c>
-      <c r="E930" t="s">
-        <v>12</v>
-      </c>
       <c r="F930" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G930" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="H930" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I930" s="2">
-        <v>45203.85636480324</v>
+        <v>45205.49888878472</v>
       </c>
     </row>
     <row r="931" spans="1:9" x14ac:dyDescent="0.25">
@@ -35507,57 +35579,57 @@
         <v>2426</v>
       </c>
       <c r="B931" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
       <c r="C931" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
       <c r="D931" t="s">
         <v>12</v>
       </c>
       <c r="E931" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
       <c r="F931" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G931" t="s">
-        <v>156</v>
+        <v>271</v>
       </c>
       <c r="H931" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I931" s="2">
-        <v>45205.49888878472</v>
+        <v>45205.4988896875</v>
       </c>
     </row>
     <row r="932" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B932" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C932" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D932" t="s">
         <v>2430</v>
       </c>
-      <c r="B932" t="s">
-        <v>2427</v>
-      </c>
-      <c r="C932" t="s">
-        <v>2428</v>
-      </c>
-      <c r="D932" t="s">
-        <v>12</v>
-      </c>
       <c r="E932" t="s">
-        <v>2429</v>
+        <v>12</v>
       </c>
       <c r="F932" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="G932" t="s">
-        <v>271</v>
+        <v>147</v>
       </c>
       <c r="H932" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I932" s="2">
-        <v>45205.4988896875</v>
+        <v>45205.501237222226</v>
       </c>
     </row>
     <row r="933" spans="1:9" x14ac:dyDescent="0.25">
@@ -35571,33 +35643,33 @@
         <v>2433</v>
       </c>
       <c r="D933" t="s">
-        <v>2434</v>
+        <v>12</v>
       </c>
       <c r="E933" t="s">
         <v>12</v>
       </c>
       <c r="F933" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="G933" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="H933" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I933" s="2">
-        <v>45205.501237222226</v>
+        <v>45205.522244259264</v>
       </c>
     </row>
     <row r="934" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="B934" t="s">
-        <v>2436</v>
+        <v>2432</v>
       </c>
       <c r="C934" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="D934" t="s">
         <v>12</v>
@@ -35606,21 +35678,21 @@
         <v>12</v>
       </c>
       <c r="F934" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G934" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H934" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I934" s="2">
-        <v>45205.522244259264</v>
+        <v>45205.52224431713</v>
       </c>
     </row>
     <row r="935" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="B935" t="s">
         <v>2436</v>
@@ -35632,30 +35704,30 @@
         <v>12</v>
       </c>
       <c r="E935" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="F935" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G935" t="s">
-        <v>51</v>
+        <v>665</v>
       </c>
       <c r="H935" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I935" s="2">
-        <v>45205.52224431713</v>
+        <v>45205.5616519676</v>
       </c>
     </row>
     <row r="936" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="B936" t="s">
-        <v>2440</v>
+        <v>2436</v>
       </c>
       <c r="C936" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
       <c r="D936" t="s">
         <v>12</v>
@@ -35664,21 +35736,21 @@
         <v>152</v>
       </c>
       <c r="F936" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G936" t="s">
-        <v>665</v>
+        <v>42</v>
       </c>
       <c r="H936" t="s">
         <v>15</v>
       </c>
       <c r="I936" s="2">
-        <v>45205.5616519676</v>
+        <v>45205.56165300926</v>
       </c>
     </row>
     <row r="937" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="B937" t="s">
         <v>2440</v>
@@ -35693,85 +35765,85 @@
         <v>152</v>
       </c>
       <c r="F937" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G937" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H937" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I937" s="2">
-        <v>45205.56165300926</v>
+        <v>45205.56498895833</v>
       </c>
     </row>
     <row r="938" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B938" t="s">
         <v>2443</v>
       </c>
-      <c r="B938" t="s">
+      <c r="C938" t="s">
         <v>2444</v>
       </c>
-      <c r="C938" t="s">
+      <c r="D938" t="s">
         <v>2445</v>
       </c>
-      <c r="D938" t="s">
-        <v>12</v>
-      </c>
       <c r="E938" t="s">
-        <v>152</v>
+        <v>2446</v>
       </c>
       <c r="F938" t="s">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="G938" t="s">
-        <v>18</v>
+        <v>2447</v>
       </c>
       <c r="H938" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I938" s="2">
-        <v>45205.56498895833</v>
+        <v>45205.703036516206</v>
       </c>
     </row>
     <row r="939" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="B939" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="C939" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="D939" t="s">
-        <v>2449</v>
+        <v>12</v>
       </c>
       <c r="E939" t="s">
-        <v>2450</v>
+        <v>12</v>
       </c>
       <c r="F939" t="s">
-        <v>264</v>
+        <v>117</v>
       </c>
       <c r="G939" t="s">
-        <v>2451</v>
+        <v>147</v>
       </c>
       <c r="H939" t="s">
         <v>45</v>
       </c>
       <c r="I939" s="2">
-        <v>45205.703036516206</v>
+        <v>45205.70355090278</v>
       </c>
     </row>
     <row r="940" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="B940" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="C940" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
       <c r="D940" t="s">
         <v>12</v>
@@ -35780,21 +35852,21 @@
         <v>12</v>
       </c>
       <c r="F940" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="G940" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="H940" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I940" s="2">
-        <v>45205.70355090278</v>
+        <v>45205.70355096065</v>
       </c>
     </row>
     <row r="941" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="B941" t="s">
         <v>2453</v>
@@ -35803,10 +35875,10 @@
         <v>2454</v>
       </c>
       <c r="D941" t="s">
-        <v>12</v>
+        <v>2455</v>
       </c>
       <c r="E941" t="s">
-        <v>12</v>
+        <v>936</v>
       </c>
       <c r="F941" t="s">
         <v>17</v>
@@ -35815,10 +35887,10 @@
         <v>18</v>
       </c>
       <c r="H941" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="I941" s="2">
-        <v>45205.70355096065</v>
+        <v>45205.74957600694</v>
       </c>
     </row>
     <row r="942" spans="1:9" x14ac:dyDescent="0.25">
@@ -35832,22 +35904,22 @@
         <v>2458</v>
       </c>
       <c r="D942" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E942" t="s">
         <v>2459</v>
       </c>
-      <c r="E942" t="s">
-        <v>936</v>
-      </c>
       <c r="F942" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G942" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H942" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I942" s="2">
-        <v>45205.74957600694</v>
+        <v>45205.75214725695</v>
       </c>
     </row>
     <row r="943" spans="1:9" x14ac:dyDescent="0.25">
@@ -35861,80 +35933,80 @@
         <v>2462</v>
       </c>
       <c r="D943" t="s">
-        <v>2458</v>
+        <v>2463</v>
       </c>
       <c r="E943" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="F943" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G943" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H943" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I943" s="2">
-        <v>45205.75214725695</v>
+        <v>45205.75893984953</v>
       </c>
     </row>
     <row r="944" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="B944" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="C944" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="D944" t="s">
-        <v>2467</v>
+        <v>12</v>
       </c>
       <c r="E944" t="s">
-        <v>2468</v>
+        <v>304</v>
       </c>
       <c r="F944" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="G944" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="H944" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I944" s="2">
-        <v>45205.75893984953</v>
+        <v>45205.780781932874</v>
       </c>
     </row>
     <row r="945" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B945" t="s">
         <v>2469</v>
       </c>
-      <c r="B945" t="s">
+      <c r="C945" t="s">
         <v>2470</v>
       </c>
-      <c r="C945" t="s">
+      <c r="D945" t="s">
+        <v>12</v>
+      </c>
+      <c r="E945" t="s">
         <v>2471</v>
       </c>
-      <c r="D945" t="s">
-        <v>12</v>
-      </c>
-      <c r="E945" t="s">
-        <v>304</v>
-      </c>
       <c r="F945" t="s">
-        <v>117</v>
+        <v>264</v>
       </c>
       <c r="G945" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="H945" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I945" s="2">
-        <v>45205.780781932874</v>
+        <v>45205.78200824074</v>
       </c>
     </row>
     <row r="946" spans="1:9" x14ac:dyDescent="0.25">
@@ -35942,97 +36014,97 @@
         <v>2472</v>
       </c>
       <c r="B946" t="s">
-        <v>2473</v>
+        <v>2469</v>
       </c>
       <c r="C946" t="s">
-        <v>2474</v>
+        <v>2470</v>
       </c>
       <c r="D946" t="s">
         <v>12</v>
       </c>
       <c r="E946" t="s">
-        <v>2475</v>
+        <v>2471</v>
       </c>
       <c r="F946" t="s">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="G946" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H946" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I946" s="2">
-        <v>45205.78200824074</v>
+        <v>45205.78200831018</v>
       </c>
     </row>
     <row r="947" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="B947" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="C947" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="D947" t="s">
         <v>12</v>
       </c>
       <c r="E947" t="s">
-        <v>2475</v>
+        <v>1107</v>
       </c>
       <c r="F947" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G947" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H947" t="s">
-        <v>19</v>
+        <v>914</v>
       </c>
       <c r="I947" s="2">
-        <v>45205.78200831018</v>
+        <v>45206.428790868056</v>
       </c>
     </row>
     <row r="948" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B948" t="s">
         <v>2477</v>
       </c>
-      <c r="B948" t="s">
+      <c r="C948" t="s">
         <v>2478</v>
       </c>
-      <c r="C948" t="s">
-        <v>2479</v>
-      </c>
       <c r="D948" t="s">
         <v>12</v>
       </c>
       <c r="E948" t="s">
-        <v>1107</v>
+        <v>152</v>
       </c>
       <c r="F948" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G948" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H948" t="s">
-        <v>914</v>
+        <v>15</v>
       </c>
       <c r="I948" s="2">
-        <v>45206.428790868056</v>
+        <v>45206.43539118055</v>
       </c>
     </row>
     <row r="949" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B949" t="s">
         <v>2480</v>
       </c>
-      <c r="B949" t="s">
+      <c r="C949" t="s">
         <v>2481</v>
-      </c>
-      <c r="C949" t="s">
-        <v>2482</v>
       </c>
       <c r="D949" t="s">
         <v>12</v>
@@ -36050,18 +36122,18 @@
         <v>15</v>
       </c>
       <c r="I949" s="2">
-        <v>45206.43539118055</v>
+        <v>45206.51995297454</v>
       </c>
     </row>
     <row r="950" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B950" t="s">
-        <v>2484</v>
+        <v>2480</v>
       </c>
       <c r="C950" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
       <c r="D950" t="s">
         <v>12</v>
@@ -36070,21 +36142,21 @@
         <v>152</v>
       </c>
       <c r="F950" t="s">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="G950" t="s">
-        <v>26</v>
+        <v>665</v>
       </c>
       <c r="H950" t="s">
         <v>15</v>
       </c>
       <c r="I950" s="2">
-        <v>45206.51995297454</v>
+        <v>45206.51995284722</v>
       </c>
     </row>
     <row r="951" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="B951" t="s">
         <v>2484</v>
@@ -36096,77 +36168,77 @@
         <v>12</v>
       </c>
       <c r="E951" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="F951" t="s">
-        <v>264</v>
+        <v>50</v>
       </c>
       <c r="G951" t="s">
-        <v>665</v>
+        <v>243</v>
       </c>
       <c r="H951" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I951" s="2">
-        <v>45206.51995284722</v>
+        <v>45206.58467167824</v>
       </c>
     </row>
     <row r="952" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B952" t="s">
         <v>2487</v>
       </c>
-      <c r="B952" t="s">
+      <c r="C952" t="s">
         <v>2488</v>
       </c>
-      <c r="C952" t="s">
+      <c r="D952" t="s">
         <v>2489</v>
       </c>
-      <c r="D952" t="s">
-        <v>12</v>
-      </c>
       <c r="E952" t="s">
-        <v>12</v>
+        <v>2490</v>
       </c>
       <c r="F952" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G952" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="H952" t="s">
-        <v>45</v>
+        <v>409</v>
       </c>
       <c r="I952" s="2">
-        <v>45206.58467167824</v>
+        <v>45206.65224597222</v>
       </c>
     </row>
     <row r="953" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="B953" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="C953" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="D953" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="E953" t="s">
-        <v>2494</v>
+        <v>12</v>
       </c>
       <c r="F953" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="G953" t="s">
-        <v>156</v>
+        <v>483</v>
       </c>
       <c r="H953" t="s">
-        <v>409</v>
+        <v>15</v>
       </c>
       <c r="I953" s="2">
-        <v>45206.65224597222</v>
+        <v>45206.87380515046</v>
       </c>
     </row>
     <row r="954" spans="1:9" x14ac:dyDescent="0.25">
@@ -36180,33 +36252,33 @@
         <v>2497</v>
       </c>
       <c r="D954" t="s">
-        <v>2498</v>
+        <v>12</v>
       </c>
       <c r="E954" t="s">
-        <v>12</v>
+        <v>1107</v>
       </c>
       <c r="F954" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G954" t="s">
-        <v>483</v>
+        <v>51</v>
       </c>
       <c r="H954" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I954" s="2">
-        <v>45206.87380515046</v>
+        <v>45207.445698020834</v>
       </c>
     </row>
     <row r="955" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B955" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
       <c r="C955" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="D955" t="s">
         <v>12</v>
@@ -36215,21 +36287,21 @@
         <v>1107</v>
       </c>
       <c r="F955" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="G955" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="H955" t="s">
         <v>45</v>
       </c>
       <c r="I955" s="2">
-        <v>45207.445698020834</v>
+        <v>45207.44569814815</v>
       </c>
     </row>
     <row r="956" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="B956" t="s">
         <v>2500</v>
@@ -36241,222 +36313,222 @@
         <v>12</v>
       </c>
       <c r="E956" t="s">
-        <v>1107</v>
+        <v>12</v>
       </c>
       <c r="F956" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="G956" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="H956" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I956" s="2">
-        <v>45207.44569814815</v>
+        <v>45207.618358182866</v>
       </c>
     </row>
     <row r="957" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B957" t="s">
         <v>2503</v>
       </c>
-      <c r="B957" t="s">
+      <c r="C957" t="s">
         <v>2504</v>
       </c>
-      <c r="C957" t="s">
+      <c r="D957" t="s">
         <v>2505</v>
       </c>
-      <c r="D957" t="s">
-        <v>12</v>
-      </c>
       <c r="E957" t="s">
-        <v>12</v>
+        <v>2506</v>
       </c>
       <c r="F957" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G957" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H957" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I957" s="2">
-        <v>45207.618358182866</v>
+        <v>45207.69136490741</v>
       </c>
     </row>
     <row r="958" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="B958" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="C958" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="D958" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="E958" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="F958" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G958" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H958" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I958" s="2">
-        <v>45207.69136490741</v>
+        <v>45207.72622229166</v>
       </c>
     </row>
     <row r="959" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="B959" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="C959" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="D959" t="s">
-        <v>2514</v>
+        <v>12</v>
       </c>
       <c r="E959" t="s">
-        <v>2515</v>
+        <v>991</v>
       </c>
       <c r="F959" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G959" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H959" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I959" s="2">
-        <v>45207.72622229166</v>
+        <v>45207.772206539354</v>
       </c>
     </row>
     <row r="960" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B960" t="s">
         <v>2516</v>
       </c>
-      <c r="B960" t="s">
+      <c r="C960" t="s">
         <v>2517</v>
       </c>
-      <c r="C960" t="s">
-        <v>2518</v>
-      </c>
       <c r="D960" t="s">
         <v>12</v>
       </c>
       <c r="E960" t="s">
-        <v>991</v>
+        <v>12</v>
       </c>
       <c r="F960" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G960" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="H960" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I960" s="2">
-        <v>45207.772206539354</v>
+        <v>45207.774455011575</v>
       </c>
     </row>
     <row r="961" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B961" t="s">
         <v>2519</v>
       </c>
-      <c r="B961" t="s">
+      <c r="C961" t="s">
         <v>2520</v>
       </c>
-      <c r="C961" t="s">
-        <v>2521</v>
-      </c>
       <c r="D961" t="s">
         <v>12</v>
       </c>
       <c r="E961" t="s">
-        <v>12</v>
+        <v>1107</v>
       </c>
       <c r="F961" t="s">
         <v>17</v>
       </c>
       <c r="G961" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="H961" t="s">
         <v>19</v>
       </c>
       <c r="I961" s="2">
-        <v>45207.774455011575</v>
+        <v>45208.36400310185</v>
       </c>
     </row>
     <row r="962" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B962" t="s">
         <v>2522</v>
       </c>
-      <c r="B962" t="s">
+      <c r="C962" t="s">
         <v>2523</v>
       </c>
-      <c r="C962" t="s">
-        <v>2524</v>
-      </c>
       <c r="D962" t="s">
         <v>12</v>
       </c>
       <c r="E962" t="s">
-        <v>1107</v>
+        <v>152</v>
       </c>
       <c r="F962" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="G962" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="H962" t="s">
-        <v>19</v>
+        <v>409</v>
       </c>
       <c r="I962" s="2">
-        <v>45208.36400310185</v>
+        <v>45208.39148532407</v>
       </c>
     </row>
     <row r="963" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B963" t="s">
         <v>2525</v>
       </c>
-      <c r="B963" t="s">
+      <c r="C963" t="s">
         <v>2526</v>
       </c>
-      <c r="C963" t="s">
+      <c r="D963" t="s">
+        <v>12</v>
+      </c>
+      <c r="E963" t="s">
         <v>2527</v>
       </c>
-      <c r="D963" t="s">
-        <v>12</v>
-      </c>
-      <c r="E963" t="s">
-        <v>152</v>
-      </c>
       <c r="F963" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G963" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="H963" t="s">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="I963" s="2">
-        <v>45208.39148532407</v>
+        <v>45208.50340427083</v>
       </c>
     </row>
     <row r="964" spans="1:9" x14ac:dyDescent="0.25">
@@ -36464,184 +36536,184 @@
         <v>2528</v>
       </c>
       <c r="B964" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="C964" t="s">
-        <v>2530</v>
+        <v>2526</v>
       </c>
       <c r="D964" t="s">
         <v>12</v>
       </c>
       <c r="E964" t="s">
-        <v>2531</v>
+        <v>2527</v>
       </c>
       <c r="F964" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G964" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H964" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I964" s="2">
-        <v>45208.50340427083</v>
+        <v>45208.50340440973</v>
       </c>
     </row>
     <row r="965" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B965" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C965" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D965" t="s">
         <v>2532</v>
       </c>
-      <c r="B965" t="s">
-        <v>2529</v>
-      </c>
-      <c r="C965" t="s">
-        <v>2530</v>
-      </c>
-      <c r="D965" t="s">
-        <v>12</v>
-      </c>
       <c r="E965" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="F965" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G965" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H965" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I965" s="2">
-        <v>45208.50340440973</v>
+        <v>45208.702341076394</v>
       </c>
     </row>
     <row r="966" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B966" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C966" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D966" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E966" t="s">
         <v>2533</v>
       </c>
-      <c r="B966" t="s">
-        <v>2534</v>
-      </c>
-      <c r="C966" t="s">
-        <v>2535</v>
-      </c>
-      <c r="D966" t="s">
-        <v>2536</v>
-      </c>
-      <c r="E966" t="s">
-        <v>2537</v>
-      </c>
       <c r="F966" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G966" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H966" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I966" s="2">
-        <v>45208.702341076394</v>
+        <v>45208.70234123843</v>
       </c>
     </row>
     <row r="967" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
       <c r="B967" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="C967" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="D967" t="s">
-        <v>2536</v>
+        <v>12</v>
       </c>
       <c r="E967" t="s">
-        <v>2537</v>
+        <v>152</v>
       </c>
       <c r="F967" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G967" t="s">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="H967" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I967" s="2">
-        <v>45208.70234123843</v>
+        <v>45209.35083270833</v>
       </c>
     </row>
     <row r="968" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B968" t="s">
         <v>2539</v>
       </c>
-      <c r="B968" t="s">
+      <c r="C968" t="s">
         <v>2540</v>
       </c>
-      <c r="C968" t="s">
+      <c r="D968" t="s">
         <v>2541</v>
       </c>
-      <c r="D968" t="s">
-        <v>12</v>
-      </c>
       <c r="E968" t="s">
-        <v>152</v>
+        <v>2542</v>
       </c>
       <c r="F968" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G968" t="s">
-        <v>271</v>
+        <v>51</v>
       </c>
       <c r="H968" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I968" s="2">
-        <v>45209.35083270833</v>
+        <v>45209.519673622686</v>
       </c>
     </row>
     <row r="969" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="B969" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="C969" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="D969" t="s">
-        <v>2545</v>
+        <v>12</v>
       </c>
       <c r="E969" t="s">
-        <v>2546</v>
+        <v>12</v>
       </c>
       <c r="F969" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G969" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H969" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I969" s="2">
-        <v>45209.519673622686</v>
+        <v>45209.59254849537</v>
       </c>
     </row>
     <row r="970" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="B970" t="s">
-        <v>2548</v>
+        <v>2544</v>
       </c>
       <c r="C970" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
       <c r="D970" t="s">
         <v>12</v>
@@ -36650,21 +36722,21 @@
         <v>12</v>
       </c>
       <c r="F970" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="G970" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="H970" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I970" s="2">
-        <v>45209.59254849537</v>
+        <v>45209.592548761575</v>
       </c>
     </row>
     <row r="971" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
       <c r="B971" t="s">
         <v>2548</v>
@@ -36676,7 +36748,7 @@
         <v>12</v>
       </c>
       <c r="E971" t="s">
-        <v>12</v>
+        <v>1529</v>
       </c>
       <c r="F971" t="s">
         <v>117</v>
@@ -36688,94 +36760,94 @@
         <v>45</v>
       </c>
       <c r="I971" s="2">
-        <v>45209.592548761575</v>
+        <v>45209.59947159722</v>
       </c>
     </row>
     <row r="972" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B972" t="s">
         <v>2551</v>
       </c>
-      <c r="B972" t="s">
+      <c r="C972" t="s">
         <v>2552</v>
       </c>
-      <c r="C972" t="s">
+      <c r="D972" t="s">
         <v>2553</v>
       </c>
-      <c r="D972" t="s">
-        <v>12</v>
-      </c>
       <c r="E972" t="s">
-        <v>1529</v>
+        <v>2554</v>
       </c>
       <c r="F972" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="G972" t="s">
-        <v>147</v>
+        <v>271</v>
       </c>
       <c r="H972" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I972" s="2">
-        <v>45209.59947159722</v>
+        <v>45209.706618125</v>
       </c>
     </row>
     <row r="973" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B973" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C973" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D973" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E973" t="s">
         <v>2554</v>
       </c>
-      <c r="B973" t="s">
-        <v>2555</v>
-      </c>
-      <c r="C973" t="s">
-        <v>2556</v>
-      </c>
-      <c r="D973" t="s">
-        <v>2557</v>
-      </c>
-      <c r="E973" t="s">
-        <v>2558</v>
-      </c>
       <c r="F973" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G973" t="s">
-        <v>271</v>
+        <v>665</v>
       </c>
       <c r="H973" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I973" s="2">
-        <v>45209.706618125</v>
+        <v>45209.70661849537</v>
       </c>
     </row>
     <row r="974" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B974" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C974" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D974" t="s">
+        <v>12</v>
+      </c>
+      <c r="E974" t="s">
         <v>2559</v>
-      </c>
-      <c r="B974" t="s">
-        <v>2555</v>
-      </c>
-      <c r="C974" t="s">
-        <v>2556</v>
-      </c>
-      <c r="D974" t="s">
-        <v>2557</v>
-      </c>
-      <c r="E974" t="s">
-        <v>2558</v>
       </c>
       <c r="F974" t="s">
         <v>13</v>
       </c>
       <c r="G974" t="s">
-        <v>665</v>
+        <v>105</v>
       </c>
       <c r="H974" t="s">
         <v>15</v>
       </c>
       <c r="I974" s="2">
-        <v>45209.70661849537</v>
+        <v>45209.77423572917</v>
       </c>
     </row>
     <row r="975" spans="1:9" x14ac:dyDescent="0.25">
@@ -36792,19 +36864,19 @@
         <v>12</v>
       </c>
       <c r="E975" t="s">
+        <v>12</v>
+      </c>
+      <c r="F975" t="s">
+        <v>25</v>
+      </c>
+      <c r="G975" t="s">
         <v>2563</v>
-      </c>
-      <c r="F975" t="s">
-        <v>13</v>
-      </c>
-      <c r="G975" t="s">
-        <v>105</v>
       </c>
       <c r="H975" t="s">
         <v>15</v>
       </c>
       <c r="I975" s="2">
-        <v>45209.77423572917</v>
+        <v>45210.28470912037</v>
       </c>
     </row>
     <row r="976" spans="1:9" x14ac:dyDescent="0.25">
@@ -36821,48 +36893,48 @@
         <v>12</v>
       </c>
       <c r="E976" t="s">
-        <v>12</v>
+        <v>1107</v>
       </c>
       <c r="F976" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="G976" t="s">
-        <v>2567</v>
+        <v>147</v>
       </c>
       <c r="H976" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I976" s="2">
-        <v>45210.28470912037</v>
+        <v>45210.43061693287</v>
       </c>
     </row>
     <row r="977" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B977" t="s">
         <v>2568</v>
       </c>
-      <c r="B977" t="s">
+      <c r="C977" t="s">
         <v>2569</v>
       </c>
-      <c r="C977" t="s">
+      <c r="D977" t="s">
+        <v>12</v>
+      </c>
+      <c r="E977" t="s">
         <v>2570</v>
       </c>
-      <c r="D977" t="s">
-        <v>12</v>
-      </c>
-      <c r="E977" t="s">
-        <v>1107</v>
-      </c>
       <c r="F977" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="G977" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="H977" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I977" s="2">
-        <v>45210.43061693287</v>
+        <v>45210.74413065972</v>
       </c>
     </row>
     <row r="978" spans="1:9" x14ac:dyDescent="0.25">
@@ -36882,16 +36954,16 @@
         <v>2574</v>
       </c>
       <c r="F978" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G978" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="H978" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I978" s="2">
-        <v>45210.74413065972</v>
+        <v>45211.254039293985</v>
       </c>
     </row>
     <row r="979" spans="1:9" x14ac:dyDescent="0.25">
@@ -36908,19 +36980,19 @@
         <v>12</v>
       </c>
       <c r="E979" t="s">
+        <v>12</v>
+      </c>
+      <c r="F979" t="s">
+        <v>31</v>
+      </c>
+      <c r="G979" t="s">
         <v>2578</v>
       </c>
-      <c r="F979" t="s">
-        <v>17</v>
-      </c>
-      <c r="G979" t="s">
-        <v>18</v>
-      </c>
       <c r="H979" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I979" s="2">
-        <v>45211.254039293985</v>
+        <v>45212.564122407406</v>
       </c>
     </row>
     <row r="980" spans="1:9" x14ac:dyDescent="0.25">
@@ -36928,10 +37000,10 @@
         <v>2579</v>
       </c>
       <c r="B980" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="C980" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="D980" t="s">
         <v>12</v>
@@ -36940,27 +37012,27 @@
         <v>12</v>
       </c>
       <c r="F980" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="G980" t="s">
-        <v>2582</v>
+        <v>147</v>
       </c>
       <c r="H980" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I980" s="2">
-        <v>45212.564122407406</v>
+        <v>45212.56412258102</v>
       </c>
     </row>
     <row r="981" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="B981" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="C981" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="D981" t="s">
         <v>12</v>
@@ -36969,45 +37041,45 @@
         <v>12</v>
       </c>
       <c r="F981" t="s">
-        <v>117</v>
+        <v>264</v>
       </c>
       <c r="G981" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="H981" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I981" s="2">
-        <v>45212.56412258102</v>
+        <v>45212.604591689815</v>
       </c>
     </row>
     <row r="982" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B982" t="s">
         <v>2584</v>
       </c>
-      <c r="B982" t="s">
+      <c r="C982" t="s">
         <v>2585</v>
       </c>
-      <c r="C982" t="s">
+      <c r="D982" t="s">
         <v>2586</v>
       </c>
-      <c r="D982" t="s">
-        <v>12</v>
-      </c>
       <c r="E982" t="s">
-        <v>12</v>
+        <v>1431</v>
       </c>
       <c r="F982" t="s">
-        <v>264</v>
+        <v>117</v>
       </c>
       <c r="G982" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="H982" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I982" s="2">
-        <v>45212.604591689815</v>
+        <v>45212.63408849537</v>
       </c>
     </row>
     <row r="983" spans="1:9" x14ac:dyDescent="0.25">
@@ -37015,57 +37087,57 @@
         <v>2587</v>
       </c>
       <c r="B983" t="s">
-        <v>2588</v>
+        <v>2584</v>
       </c>
       <c r="C983" t="s">
-        <v>2589</v>
+        <v>2585</v>
       </c>
       <c r="D983" t="s">
-        <v>2590</v>
+        <v>2586</v>
       </c>
       <c r="E983" t="s">
         <v>1431</v>
       </c>
       <c r="F983" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="G983" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="H983" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I983" s="2">
-        <v>45212.63408849537</v>
+        <v>45212.63408885417</v>
       </c>
     </row>
     <row r="984" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B984" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C984" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D984" t="s">
         <v>2591</v>
       </c>
-      <c r="B984" t="s">
-        <v>2588</v>
-      </c>
-      <c r="C984" t="s">
-        <v>2589</v>
-      </c>
-      <c r="D984" t="s">
-        <v>2590</v>
-      </c>
       <c r="E984" t="s">
-        <v>1431</v>
+        <v>12</v>
       </c>
       <c r="F984" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="G984" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H984" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I984" s="2">
-        <v>45212.63408885417</v>
+        <v>45212.66828924768</v>
       </c>
     </row>
     <row r="985" spans="1:9" x14ac:dyDescent="0.25">
@@ -37073,68 +37145,68 @@
         <v>2592</v>
       </c>
       <c r="B985" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C985" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D985" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E985" t="s">
+        <v>12</v>
+      </c>
+      <c r="F985" t="s">
+        <v>41</v>
+      </c>
+      <c r="G985" t="s">
         <v>2593</v>
       </c>
-      <c r="C985" t="s">
-        <v>2594</v>
-      </c>
-      <c r="D985" t="s">
-        <v>2595</v>
-      </c>
-      <c r="E985" t="s">
-        <v>12</v>
-      </c>
-      <c r="F985" t="s">
-        <v>117</v>
-      </c>
-      <c r="G985" t="s">
-        <v>118</v>
-      </c>
       <c r="H985" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I985" s="2">
-        <v>45212.66828924768</v>
+        <v>45212.66828932871</v>
       </c>
     </row>
     <row r="986" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B986" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C986" t="s">
         <v>2596</v>
       </c>
-      <c r="B986" t="s">
-        <v>2593</v>
-      </c>
-      <c r="C986" t="s">
-        <v>2594</v>
-      </c>
       <c r="D986" t="s">
-        <v>2595</v>
+        <v>12</v>
       </c>
       <c r="E986" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="F986" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G986" t="s">
-        <v>2597</v>
+        <v>665</v>
       </c>
       <c r="H986" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I986" s="2">
-        <v>45212.66828932871</v>
+        <v>45213.35895252315</v>
       </c>
     </row>
     <row r="987" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="B987" t="s">
-        <v>2599</v>
+        <v>2595</v>
       </c>
       <c r="C987" t="s">
-        <v>2600</v>
+        <v>2596</v>
       </c>
       <c r="D987" t="s">
         <v>12</v>
@@ -37143,21 +37215,21 @@
         <v>152</v>
       </c>
       <c r="F987" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="G987" t="s">
-        <v>665</v>
+        <v>147</v>
       </c>
       <c r="H987" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I987" s="2">
-        <v>45213.35895252315</v>
+        <v>45213.358952800925</v>
       </c>
     </row>
     <row r="988" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>2601</v>
+        <v>2598</v>
       </c>
       <c r="B988" t="s">
         <v>2599</v>
@@ -37166,39 +37238,39 @@
         <v>2600</v>
       </c>
       <c r="D988" t="s">
-        <v>12</v>
+        <v>2601</v>
       </c>
       <c r="E988" t="s">
-        <v>152</v>
+        <v>2602</v>
       </c>
       <c r="F988" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="G988" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="H988" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I988" s="2">
-        <v>45213.358952800925</v>
+        <v>45213.68837211806</v>
       </c>
     </row>
     <row r="989" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="B989" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="C989" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="D989" t="s">
-        <v>2605</v>
+        <v>12</v>
       </c>
       <c r="E989" t="s">
-        <v>2606</v>
+        <v>12</v>
       </c>
       <c r="F989" t="s">
         <v>13</v>
@@ -37210,24 +37282,24 @@
         <v>15</v>
       </c>
       <c r="I989" s="2">
-        <v>45213.68837211806</v>
+        <v>45213.734129062505</v>
       </c>
     </row>
     <row r="990" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B990" t="s">
         <v>2607</v>
       </c>
-      <c r="B990" t="s">
+      <c r="C990" t="s">
         <v>2608</v>
       </c>
-      <c r="C990" t="s">
-        <v>2609</v>
-      </c>
       <c r="D990" t="s">
         <v>12</v>
       </c>
       <c r="E990" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="F990" t="s">
         <v>13</v>
@@ -37239,18 +37311,18 @@
         <v>15</v>
       </c>
       <c r="I990" s="2">
-        <v>45213.734129062505</v>
+        <v>45214.26311372685</v>
       </c>
     </row>
     <row r="991" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B991" t="s">
-        <v>2611</v>
+        <v>2607</v>
       </c>
       <c r="C991" t="s">
-        <v>2612</v>
+        <v>2608</v>
       </c>
       <c r="D991" t="s">
         <v>12</v>
@@ -37259,21 +37331,21 @@
         <v>152</v>
       </c>
       <c r="F991" t="s">
-        <v>13</v>
+        <v>264</v>
       </c>
       <c r="G991" t="s">
-        <v>105</v>
+        <v>483</v>
       </c>
       <c r="H991" t="s">
         <v>15</v>
       </c>
       <c r="I991" s="2">
-        <v>45214.26311372685</v>
+        <v>45214.263113865745</v>
       </c>
     </row>
     <row r="992" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="B992" t="s">
         <v>2611</v>
@@ -37288,74 +37360,74 @@
         <v>152</v>
       </c>
       <c r="F992" t="s">
-        <v>264</v>
+        <v>117</v>
       </c>
       <c r="G992" t="s">
-        <v>483</v>
+        <v>147</v>
       </c>
       <c r="H992" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I992" s="2">
-        <v>45214.263113865745</v>
+        <v>45214.44434428241</v>
       </c>
     </row>
     <row r="993" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B993" t="s">
         <v>2614</v>
       </c>
-      <c r="B993" t="s">
+      <c r="C993" t="s">
         <v>2615</v>
       </c>
-      <c r="C993" t="s">
+      <c r="D993" t="s">
         <v>2616</v>
       </c>
-      <c r="D993" t="s">
-        <v>12</v>
-      </c>
       <c r="E993" t="s">
-        <v>152</v>
+        <v>2617</v>
       </c>
       <c r="F993" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="G993" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="H993" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I993" s="2">
-        <v>45214.44434428241</v>
+        <v>45214.471215185185</v>
       </c>
     </row>
     <row r="994" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="B994" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="C994" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="D994" t="s">
-        <v>2620</v>
+        <v>12</v>
       </c>
       <c r="E994" t="s">
         <v>2621</v>
       </c>
       <c r="F994" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G994" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="H994" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I994" s="2">
-        <v>45214.471215185185</v>
+        <v>45214.672371249995</v>
       </c>
     </row>
     <row r="995" spans="1:9" x14ac:dyDescent="0.25">
@@ -37369,22 +37441,22 @@
         <v>2624</v>
       </c>
       <c r="D995" t="s">
-        <v>12</v>
+        <v>2625</v>
       </c>
       <c r="E995" t="s">
-        <v>2625</v>
+        <v>991</v>
       </c>
       <c r="F995" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G995" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H995" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I995" s="2">
-        <v>45214.672371249995</v>
+        <v>45214.767796134256</v>
       </c>
     </row>
     <row r="996" spans="1:9" x14ac:dyDescent="0.25">
@@ -37392,115 +37464,115 @@
         <v>2626</v>
       </c>
       <c r="B996" t="s">
-        <v>2627</v>
+        <v>2623</v>
       </c>
       <c r="C996" t="s">
-        <v>2628</v>
+        <v>2624</v>
       </c>
       <c r="D996" t="s">
-        <v>2629</v>
+        <v>2625</v>
       </c>
       <c r="E996" t="s">
         <v>991</v>
       </c>
       <c r="F996" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G996" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H996" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I996" s="2">
-        <v>45214.767796134256</v>
+        <v>45214.767799560184</v>
       </c>
     </row>
     <row r="997" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B997" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C997" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D997" t="s">
         <v>2630</v>
       </c>
-      <c r="B997" t="s">
-        <v>2627</v>
-      </c>
-      <c r="C997" t="s">
-        <v>2628</v>
-      </c>
-      <c r="D997" t="s">
-        <v>2629</v>
-      </c>
       <c r="E997" t="s">
-        <v>991</v>
+        <v>2631</v>
       </c>
       <c r="F997" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G997" t="s">
-        <v>51</v>
+        <v>364</v>
       </c>
       <c r="H997" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I997" s="2">
-        <v>45214.767799560184</v>
+        <v>45214.85192141204</v>
       </c>
     </row>
     <row r="998" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B998" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C998" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D998" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E998" t="s">
         <v>2631</v>
       </c>
-      <c r="B998" t="s">
-        <v>2632</v>
-      </c>
-      <c r="C998" t="s">
-        <v>2633</v>
-      </c>
-      <c r="D998" t="s">
-        <v>2634</v>
-      </c>
-      <c r="E998" t="s">
-        <v>2635</v>
-      </c>
       <c r="F998" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G998" t="s">
-        <v>364</v>
+        <v>102</v>
       </c>
       <c r="H998" t="s">
-        <v>19</v>
+        <v>782</v>
       </c>
       <c r="I998" s="2">
-        <v>45214.85192141204</v>
+        <v>45214.85192247685</v>
       </c>
     </row>
     <row r="999" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B999" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C999" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D999" t="s">
+        <v>12</v>
+      </c>
+      <c r="E999" t="s">
         <v>2636</v>
       </c>
-      <c r="B999" t="s">
-        <v>2632</v>
-      </c>
-      <c r="C999" t="s">
-        <v>2633</v>
-      </c>
-      <c r="D999" t="s">
-        <v>2634</v>
-      </c>
-      <c r="E999" t="s">
-        <v>2635</v>
-      </c>
       <c r="F999" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G999" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="H999" t="s">
-        <v>782</v>
+        <v>19</v>
       </c>
       <c r="I999" s="2">
-        <v>45214.85192247685</v>
+        <v>45215.41673216435</v>
       </c>
     </row>
     <row r="1000" spans="1:9" x14ac:dyDescent="0.25">
@@ -37508,45 +37580,45 @@
         <v>2637</v>
       </c>
       <c r="B1000" t="s">
-        <v>2638</v>
+        <v>2634</v>
       </c>
       <c r="C1000" t="s">
-        <v>2639</v>
+        <v>2635</v>
       </c>
       <c r="D1000" t="s">
         <v>12</v>
       </c>
       <c r="E1000" t="s">
-        <v>2640</v>
+        <v>2636</v>
       </c>
       <c r="F1000" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G1000" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="H1000" t="s">
         <v>19</v>
       </c>
       <c r="I1000" s="2">
-        <v>45215.41673216435</v>
+        <v>45215.416733680555</v>
       </c>
     </row>
     <row r="1001" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>2641</v>
+        <v>2638</v>
       </c>
       <c r="B1001" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="C1001" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="D1001" t="s">
         <v>12</v>
       </c>
       <c r="E1001" t="s">
-        <v>2640</v>
+        <v>152</v>
       </c>
       <c r="F1001" t="s">
         <v>31</v>
@@ -37558,36 +37630,36 @@
         <v>19</v>
       </c>
       <c r="I1001" s="2">
-        <v>45215.416733680555</v>
+        <v>45215.429592858796</v>
       </c>
     </row>
     <row r="1002" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B1002" t="s">
         <v>2642</v>
       </c>
-      <c r="B1002" t="s">
+      <c r="C1002" t="s">
         <v>2643</v>
       </c>
-      <c r="C1002" t="s">
+      <c r="D1002" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1002" t="s">
         <v>2644</v>
       </c>
-      <c r="D1002" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1002" t="s">
-        <v>152</v>
-      </c>
       <c r="F1002" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G1002" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H1002" t="s">
         <v>19</v>
       </c>
       <c r="I1002" s="2">
-        <v>45215.429592858796</v>
+        <v>45215.44103291667</v>
       </c>
     </row>
     <row r="1003" spans="1:9" x14ac:dyDescent="0.25">
@@ -37595,97 +37667,97 @@
         <v>2645</v>
       </c>
       <c r="B1003" t="s">
-        <v>2646</v>
+        <v>2642</v>
       </c>
       <c r="C1003" t="s">
-        <v>2647</v>
+        <v>2643</v>
       </c>
       <c r="D1003" t="s">
         <v>12</v>
       </c>
       <c r="E1003" t="s">
-        <v>2648</v>
+        <v>2644</v>
       </c>
       <c r="F1003" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="G1003" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="H1003" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I1003" s="2">
-        <v>45215.44103291667</v>
+        <v>45215.44103295139</v>
       </c>
     </row>
     <row r="1004" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1004" t="s">
         <v>2649</v>
       </c>
-      <c r="B1004" t="s">
-        <v>2646</v>
-      </c>
-      <c r="C1004" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D1004" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1004" t="s">
-        <v>2648</v>
-      </c>
-      <c r="F1004" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1004" t="s">
-        <v>147</v>
-      </c>
       <c r="H1004" t="s">
-        <v>45</v>
+        <v>2650</v>
       </c>
       <c r="I1004" s="2">
-        <v>45215.44103295139</v>
+        <v>45215.44289037037</v>
       </c>
     </row>
     <row r="1005" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="B1005" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="C1005" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="D1005" t="s">
         <v>12</v>
       </c>
       <c r="E1005" t="s">
-        <v>152</v>
+        <v>1107</v>
       </c>
       <c r="F1005" t="s">
         <v>41</v>
       </c>
       <c r="G1005" t="s">
-        <v>2653</v>
+        <v>42</v>
       </c>
       <c r="H1005" t="s">
-        <v>2654</v>
+        <v>19</v>
       </c>
       <c r="I1005" s="2">
-        <v>45215.44289037037</v>
+        <v>45215.517304918976</v>
       </c>
     </row>
     <row r="1006" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="B1006" t="s">
-        <v>2656</v>
+        <v>2652</v>
       </c>
       <c r="C1006" t="s">
-        <v>2657</v>
+        <v>2653</v>
       </c>
       <c r="D1006" t="s">
         <v>12</v>
@@ -37694,21 +37766,21 @@
         <v>1107</v>
       </c>
       <c r="F1006" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G1006" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H1006" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I1006" s="2">
-        <v>45215.517304918976</v>
+        <v>45215.51730533565</v>
       </c>
     </row>
     <row r="1007" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>2658</v>
+        <v>2655</v>
       </c>
       <c r="B1007" t="s">
         <v>2656</v>
@@ -37717,51 +37789,51 @@
         <v>2657</v>
       </c>
       <c r="D1007" t="s">
-        <v>12</v>
+        <v>2658</v>
       </c>
       <c r="E1007" t="s">
-        <v>1107</v>
+        <v>2659</v>
       </c>
       <c r="F1007" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G1007" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H1007" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I1007" s="2">
-        <v>45215.51730533565</v>
+        <v>45215.52117180555</v>
       </c>
     </row>
     <row r="1008" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="B1008" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="C1008" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="D1008" t="s">
-        <v>2662</v>
+        <v>12</v>
       </c>
       <c r="E1008" t="s">
         <v>2663</v>
       </c>
       <c r="F1008" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G1008" t="s">
-        <v>42</v>
+        <v>1170</v>
       </c>
       <c r="H1008" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="I1008" s="2">
-        <v>45215.52117180555</v>
+        <v>45215.52204524305</v>
       </c>
     </row>
     <row r="1009" spans="1:9" x14ac:dyDescent="0.25">
@@ -37769,86 +37841,86 @@
         <v>2664</v>
       </c>
       <c r="B1009" t="s">
-        <v>2665</v>
+        <v>2661</v>
       </c>
       <c r="C1009" t="s">
-        <v>2666</v>
+        <v>2662</v>
       </c>
       <c r="D1009" t="s">
         <v>12</v>
       </c>
       <c r="E1009" t="s">
-        <v>2667</v>
+        <v>2663</v>
       </c>
       <c r="F1009" t="s">
         <v>17</v>
       </c>
       <c r="G1009" t="s">
-        <v>1170</v>
+        <v>2665</v>
       </c>
       <c r="H1009" t="s">
         <v>67</v>
       </c>
       <c r="I1009" s="2">
-        <v>45215.52204524305</v>
+        <v>45215.59468130787</v>
       </c>
     </row>
     <row r="1010" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1010" t="s">
         <v>2668</v>
       </c>
-      <c r="B1010" t="s">
-        <v>2665</v>
-      </c>
-      <c r="C1010" t="s">
-        <v>2666</v>
-      </c>
       <c r="D1010" t="s">
-        <v>12</v>
+        <v>2669</v>
       </c>
       <c r="E1010" t="s">
-        <v>2667</v>
+        <v>2670</v>
       </c>
       <c r="F1010" t="s">
         <v>17</v>
       </c>
       <c r="G1010" t="s">
-        <v>2669</v>
+        <v>18</v>
       </c>
       <c r="H1010" t="s">
-        <v>67</v>
+        <v>2671</v>
       </c>
       <c r="I1010" s="2">
-        <v>45215.59468130787</v>
+        <v>45215.534644872685</v>
       </c>
     </row>
     <row r="1011" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>2670</v>
+        <v>2672</v>
       </c>
       <c r="B1011" t="s">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c r="C1011" t="s">
-        <v>2672</v>
+        <v>2674</v>
       </c>
       <c r="D1011" t="s">
-        <v>2673</v>
+        <v>12</v>
       </c>
       <c r="E1011" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="F1011" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="G1011" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="H1011" t="s">
-        <v>2675</v>
+        <v>45</v>
       </c>
       <c r="I1011" s="2">
-        <v>45215.534644872685</v>
+        <v>45215.54179180556</v>
       </c>
     </row>
     <row r="1012" spans="1:9" x14ac:dyDescent="0.25">
@@ -37865,7 +37937,7 @@
         <v>12</v>
       </c>
       <c r="E1012" t="s">
-        <v>2679</v>
+        <v>12</v>
       </c>
       <c r="F1012" t="s">
         <v>117</v>
@@ -37877,18 +37949,18 @@
         <v>45</v>
       </c>
       <c r="I1012" s="2">
-        <v>45215.54179180556</v>
+        <v>45215.54356467593</v>
       </c>
     </row>
     <row r="1013" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="B1013" t="s">
-        <v>2681</v>
+        <v>2677</v>
       </c>
       <c r="C1013" t="s">
-        <v>2682</v>
+        <v>2678</v>
       </c>
       <c r="D1013" t="s">
         <v>12</v>
@@ -37897,21 +37969,21 @@
         <v>12</v>
       </c>
       <c r="F1013" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="G1013" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="H1013" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I1013" s="2">
-        <v>45215.54356467593</v>
+        <v>45215.543564733794</v>
       </c>
     </row>
     <row r="1014" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="B1014" t="s">
         <v>2681</v>
@@ -37923,19 +37995,19 @@
         <v>12</v>
       </c>
       <c r="E1014" t="s">
-        <v>12</v>
+        <v>2683</v>
       </c>
       <c r="F1014" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G1014" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H1014" t="s">
         <v>19</v>
       </c>
       <c r="I1014" s="2">
-        <v>45215.543564733794</v>
+        <v>45215.5762415162</v>
       </c>
     </row>
     <row r="1015" spans="1:9" x14ac:dyDescent="0.25">
@@ -37952,7 +38024,7 @@
         <v>12</v>
       </c>
       <c r="E1015" t="s">
-        <v>2687</v>
+        <v>12</v>
       </c>
       <c r="F1015" t="s">
         <v>41</v>
@@ -37964,18 +38036,18 @@
         <v>19</v>
       </c>
       <c r="I1015" s="2">
-        <v>45215.5762415162</v>
+        <v>45215.57767197917</v>
       </c>
     </row>
     <row r="1016" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B1016" t="s">
         <v>2688</v>
       </c>
-      <c r="B1016" t="s">
+      <c r="C1016" t="s">
         <v>2689</v>
-      </c>
-      <c r="C1016" t="s">
-        <v>2690</v>
       </c>
       <c r="D1016" t="s">
         <v>12</v>
@@ -37993,18 +38065,18 @@
         <v>19</v>
       </c>
       <c r="I1016" s="2">
-        <v>45215.57767197917</v>
+        <v>45215.611144270835</v>
       </c>
     </row>
     <row r="1017" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B1017" t="s">
         <v>2691</v>
       </c>
-      <c r="B1017" t="s">
+      <c r="C1017" t="s">
         <v>2692</v>
-      </c>
-      <c r="C1017" t="s">
-        <v>2693</v>
       </c>
       <c r="D1017" t="s">
         <v>12</v>
@@ -38016,42 +38088,42 @@
         <v>41</v>
       </c>
       <c r="G1017" t="s">
-        <v>42</v>
+        <v>2593</v>
       </c>
       <c r="H1017" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="I1017" s="2">
-        <v>45215.611144270835</v>
+        <v>45215.64972774306</v>
       </c>
     </row>
     <row r="1018" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B1018" t="s">
         <v>2694</v>
       </c>
-      <c r="B1018" t="s">
+      <c r="C1018" t="s">
         <v>2695</v>
       </c>
-      <c r="C1018" t="s">
+      <c r="D1018" t="s">
         <v>2696</v>
       </c>
-      <c r="D1018" t="s">
-        <v>12</v>
-      </c>
       <c r="E1018" t="s">
-        <v>12</v>
+        <v>2659</v>
       </c>
       <c r="F1018" t="s">
         <v>41</v>
       </c>
       <c r="G1018" t="s">
-        <v>2597</v>
+        <v>42</v>
       </c>
       <c r="H1018" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I1018" s="2">
-        <v>45215.64972774306</v>
+        <v>45215.65994810185</v>
       </c>
     </row>
     <row r="1019" spans="1:9" x14ac:dyDescent="0.25">
@@ -38059,86 +38131,347 @@
         <v>2697</v>
       </c>
       <c r="B1019" t="s">
-        <v>2698</v>
+        <v>2694</v>
       </c>
       <c r="C1019" t="s">
-        <v>2699</v>
+        <v>2695</v>
       </c>
       <c r="D1019" t="s">
-        <v>2700</v>
+        <v>2696</v>
       </c>
       <c r="E1019" t="s">
-        <v>2663</v>
+        <v>2659</v>
       </c>
       <c r="F1019" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G1019" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H1019" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I1019" s="2">
-        <v>45215.65994810185</v>
+        <v>45215.65994921296</v>
       </c>
     </row>
     <row r="1020" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D1020" t="s">
         <v>2701</v>
       </c>
-      <c r="B1020" t="s">
-        <v>2698</v>
-      </c>
-      <c r="C1020" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D1020" t="s">
-        <v>2700</v>
-      </c>
       <c r="E1020" t="s">
-        <v>2663</v>
+        <v>2702</v>
       </c>
       <c r="F1020" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G1020" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H1020" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I1020" s="2">
-        <v>45215.65994921296</v>
+        <v>45215.66925917824</v>
       </c>
     </row>
     <row r="1021" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="B1021" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="C1021" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1021" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1021" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1021" s="2">
+        <v>45215.67725971065</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B1022" t="s">
         <v>2704</v>
       </c>
-      <c r="D1021" t="s">
+      <c r="C1022" t="s">
         <v>2705</v>
       </c>
-      <c r="E1021" t="s">
-        <v>2706</v>
-      </c>
-      <c r="F1021" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1021" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1021" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1021" s="2">
-        <v>45215.66925917824</v>
+      <c r="D1022" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1022" t="s">
+        <v>1493</v>
+      </c>
+      <c r="H1022" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1022" s="2">
+        <v>45215.67726082176</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>2709</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>2710</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1023" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1023" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1023" s="2">
+        <v>45215.68011230324</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1024" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1024" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1024" s="2">
+        <v>45215.697834618055</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1025" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1025" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1025" s="2">
+        <v>45215.69783474537</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1026" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1026" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1026" s="2">
+        <v>45215.69783497685</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1027" t="s">
+        <v>2719</v>
+      </c>
+      <c r="H1027" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I1027" s="2">
+        <v>45215.72854077547</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>2723</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>2724</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1028" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1028" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1028" s="2">
+        <v>45215.74998331019</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>2663</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1029" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1029" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1029" s="2">
+        <v>45215.793965289355</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>2663</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1030" t="s">
+        <v>2729</v>
+      </c>
+      <c r="H1030" t="s">
+        <v>2730</v>
+      </c>
+      <c r="I1030" s="2">
+        <v>45215.79396538195</v>
       </c>
     </row>
   </sheetData>
